--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2749138787575305</v>
+        <v>0.2749138787577863</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1034547072000436</v>
+        <v>0.1034547072000116</v>
       </c>
       <c r="E2">
-        <v>3.257699012679296</v>
+        <v>3.257699012679183</v>
       </c>
       <c r="F2">
-        <v>3.267630655446808</v>
+        <v>3.267630655446794</v>
       </c>
       <c r="G2">
-        <v>2.713230396558998</v>
+        <v>2.713230396558984</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.79661400216241</v>
+        <v>18.79661400216207</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2389662643963817</v>
+        <v>0.2389662643966233</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07156775693510653</v>
+        <v>0.07156775693501061</v>
       </c>
       <c r="E3">
-        <v>2.738034650435551</v>
+        <v>2.738034650435651</v>
       </c>
       <c r="F3">
-        <v>2.574885752445383</v>
+        <v>2.574885752445368</v>
       </c>
       <c r="G3">
-        <v>2.120005350538349</v>
+        <v>2.120005350538335</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.79729517053764</v>
+        <v>15.79729517053784</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2173563756610974</v>
+        <v>0.2173563756625896</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05597453962571564</v>
+        <v>0.05597453962570142</v>
       </c>
       <c r="E4">
-        <v>2.441949542010519</v>
+        <v>2.441949542010462</v>
       </c>
       <c r="F4">
-        <v>2.207834554711837</v>
+        <v>2.207834554711852</v>
       </c>
       <c r="G4">
-        <v>1.80796805823438</v>
+        <v>1.807968058234394</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.08203123408489</v>
+        <v>14.08203123408481</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086433636724081</v>
+        <v>0.2086433636719249</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05034978575898563</v>
+        <v>0.05034978575896787</v>
       </c>
       <c r="E5">
-        <v>2.325445626006896</v>
+        <v>2.325445626006797</v>
       </c>
       <c r="F5">
-        <v>2.069146991989825</v>
+        <v>2.069146991989854</v>
       </c>
       <c r="G5">
-        <v>1.690544977237693</v>
+        <v>1.690544977237721</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.40593813395941</v>
+        <v>13.4059381339591</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2072016421316931</v>
+        <v>0.207201642131281</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04945372460529285</v>
+        <v>0.04945372460540298</v>
       </c>
       <c r="E6">
-        <v>2.306314160061348</v>
+        <v>2.306314160061362</v>
       </c>
       <c r="F6">
-        <v>2.046689533506878</v>
+        <v>2.046689533506893</v>
       </c>
       <c r="G6">
-        <v>1.671557501611915</v>
+        <v>1.671557501611929</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.29485332813991</v>
+        <v>13.29485332814014</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.217238517621638</v>
+        <v>0.2172385176220502</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05589601600746974</v>
+        <v>0.05589601600757632</v>
       </c>
       <c r="E7">
-        <v>2.440363242927404</v>
+        <v>2.440363242927504</v>
       </c>
       <c r="F7">
-        <v>2.205924108611384</v>
+        <v>2.205924108611342</v>
       </c>
       <c r="G7">
-        <v>1.806348657214116</v>
+        <v>1.806348657214102</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.07283000450278</v>
+        <v>14.07283000450306</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2624071371618868</v>
+        <v>0.2624071371604089</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09143071402947811</v>
+        <v>0.0914307140295314</v>
       </c>
       <c r="E8">
-        <v>3.072544905733665</v>
+        <v>3.072544905733736</v>
       </c>
       <c r="F8">
-        <v>3.013903834819942</v>
+        <v>3.013903834819899</v>
       </c>
       <c r="G8">
-        <v>2.495357146654854</v>
+        <v>2.495357146654825</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.72970779043351</v>
+        <v>17.72970779043396</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3562954054008003</v>
+        <v>0.3562954054011982</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2161481581135121</v>
+        <v>0.2161481581136115</v>
       </c>
       <c r="E9">
-        <v>4.632611870417321</v>
+        <v>4.632611870417378</v>
       </c>
       <c r="F9">
-        <v>5.374539025767547</v>
+        <v>5.374539025767604</v>
       </c>
       <c r="G9">
-        <v>4.54387293430544</v>
+        <v>4.543872934305497</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>26.64255257377496</v>
+        <v>26.64255257377511</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E10">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F10">
         <v>9.104960883498592</v>
       </c>
       <c r="G10">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E11">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F11">
         <v>9.104960883498592</v>
       </c>
       <c r="G11">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E12">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F12">
         <v>9.104960883498592</v>
       </c>
       <c r="G12">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E13">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F13">
         <v>9.104960883498592</v>
       </c>
       <c r="G13">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E14">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F14">
         <v>9.104960883498592</v>
       </c>
       <c r="G14">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E15">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F15">
         <v>9.104960883498592</v>
       </c>
       <c r="G15">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E16">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F16">
         <v>9.104960883498592</v>
       </c>
       <c r="G16">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E17">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F17">
         <v>9.104960883498592</v>
       </c>
       <c r="G17">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E18">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F18">
         <v>9.104960883498592</v>
       </c>
       <c r="G18">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E19">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F19">
         <v>9.104960883498592</v>
       </c>
       <c r="G19">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E20">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F20">
         <v>9.104960883498592</v>
       </c>
       <c r="G20">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E21">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F21">
         <v>9.104960883498592</v>
       </c>
       <c r="G21">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E22">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F22">
         <v>9.104960883498592</v>
       </c>
       <c r="G22">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E23">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F23">
         <v>9.104960883498592</v>
       </c>
       <c r="G23">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E24">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F24">
         <v>9.104960883498592</v>
       </c>
       <c r="G24">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4348112165613429</v>
+        <v>0.4348112165620677</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4611140884127991</v>
+        <v>0.461114088412657</v>
       </c>
       <c r="E25">
-        <v>6.672818902893709</v>
+        <v>6.672818902893511</v>
       </c>
       <c r="F25">
         <v>9.104960883498592</v>
       </c>
       <c r="G25">
-        <v>7.856567728552051</v>
+        <v>7.856567728552008</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>37.86499712003558</v>
+        <v>37.86499712003507</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2749138787577863</v>
+        <v>0.2749138787575305</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1034547072000116</v>
+        <v>0.1034547072000436</v>
       </c>
       <c r="E2">
-        <v>3.257699012679183</v>
+        <v>3.257699012679296</v>
       </c>
       <c r="F2">
-        <v>3.267630655446794</v>
+        <v>3.267630655446808</v>
       </c>
       <c r="G2">
-        <v>2.713230396558984</v>
+        <v>2.713230396558998</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.79661400216207</v>
+        <v>18.79661400216241</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2389662643966233</v>
+        <v>0.2389662643963817</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07156775693501061</v>
+        <v>0.07156775693510653</v>
       </c>
       <c r="E3">
-        <v>2.738034650435651</v>
+        <v>2.738034650435551</v>
       </c>
       <c r="F3">
-        <v>2.574885752445368</v>
+        <v>2.574885752445383</v>
       </c>
       <c r="G3">
-        <v>2.120005350538335</v>
+        <v>2.120005350538349</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.79729517053784</v>
+        <v>15.79729517053764</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2173563756625896</v>
+        <v>0.2173563756610974</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05597453962570142</v>
+        <v>0.05597453962571564</v>
       </c>
       <c r="E4">
-        <v>2.441949542010462</v>
+        <v>2.441949542010519</v>
       </c>
       <c r="F4">
-        <v>2.207834554711852</v>
+        <v>2.207834554711837</v>
       </c>
       <c r="G4">
-        <v>1.807968058234394</v>
+        <v>1.80796805823438</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.08203123408481</v>
+        <v>14.08203123408489</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086433636719249</v>
+        <v>0.2086433636724081</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05034978575896787</v>
+        <v>0.05034978575898563</v>
       </c>
       <c r="E5">
-        <v>2.325445626006797</v>
+        <v>2.325445626006896</v>
       </c>
       <c r="F5">
-        <v>2.069146991989854</v>
+        <v>2.069146991989825</v>
       </c>
       <c r="G5">
-        <v>1.690544977237721</v>
+        <v>1.690544977237693</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.4059381339591</v>
+        <v>13.40593813395941</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.207201642131281</v>
+        <v>0.2072016421316931</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04945372460540298</v>
+        <v>0.04945372460529285</v>
       </c>
       <c r="E6">
-        <v>2.306314160061362</v>
+        <v>2.306314160061348</v>
       </c>
       <c r="F6">
-        <v>2.046689533506893</v>
+        <v>2.046689533506878</v>
       </c>
       <c r="G6">
-        <v>1.671557501611929</v>
+        <v>1.671557501611915</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.29485332814014</v>
+        <v>13.29485332813991</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2172385176220502</v>
+        <v>0.217238517621638</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05589601600757632</v>
+        <v>0.05589601600746974</v>
       </c>
       <c r="E7">
-        <v>2.440363242927504</v>
+        <v>2.440363242927404</v>
       </c>
       <c r="F7">
-        <v>2.205924108611342</v>
+        <v>2.205924108611384</v>
       </c>
       <c r="G7">
-        <v>1.806348657214102</v>
+        <v>1.806348657214116</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.07283000450306</v>
+        <v>14.07283000450278</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2624071371604089</v>
+        <v>0.2624071371618868</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0914307140295314</v>
+        <v>0.09143071402947811</v>
       </c>
       <c r="E8">
-        <v>3.072544905733736</v>
+        <v>3.072544905733665</v>
       </c>
       <c r="F8">
-        <v>3.013903834819899</v>
+        <v>3.013903834819942</v>
       </c>
       <c r="G8">
-        <v>2.495357146654825</v>
+        <v>2.495357146654854</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.72970779043396</v>
+        <v>17.72970779043351</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3562954054011982</v>
+        <v>0.3562954054008003</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2161481581136115</v>
+        <v>0.2161481581135121</v>
       </c>
       <c r="E9">
-        <v>4.632611870417378</v>
+        <v>4.632611870417321</v>
       </c>
       <c r="F9">
-        <v>5.374539025767604</v>
+        <v>5.374539025767547</v>
       </c>
       <c r="G9">
-        <v>4.543872934305497</v>
+        <v>4.54387293430544</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>26.64255257377511</v>
+        <v>26.64255257377496</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E10">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F10">
         <v>9.104960883498592</v>
       </c>
       <c r="G10">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E11">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F11">
         <v>9.104960883498592</v>
       </c>
       <c r="G11">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E12">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F12">
         <v>9.104960883498592</v>
       </c>
       <c r="G12">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E13">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F13">
         <v>9.104960883498592</v>
       </c>
       <c r="G13">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E14">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F14">
         <v>9.104960883498592</v>
       </c>
       <c r="G14">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E15">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F15">
         <v>9.104960883498592</v>
       </c>
       <c r="G15">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E16">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F16">
         <v>9.104960883498592</v>
       </c>
       <c r="G16">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E17">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F17">
         <v>9.104960883498592</v>
       </c>
       <c r="G17">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E18">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F18">
         <v>9.104960883498592</v>
       </c>
       <c r="G18">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E19">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F19">
         <v>9.104960883498592</v>
       </c>
       <c r="G19">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E20">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F20">
         <v>9.104960883498592</v>
       </c>
       <c r="G20">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E21">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F21">
         <v>9.104960883498592</v>
       </c>
       <c r="G21">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E22">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F22">
         <v>9.104960883498592</v>
       </c>
       <c r="G22">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E23">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F23">
         <v>9.104960883498592</v>
       </c>
       <c r="G23">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E24">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F24">
         <v>9.104960883498592</v>
       </c>
       <c r="G24">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4348112165620677</v>
+        <v>0.4348112165613429</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.461114088412657</v>
+        <v>0.4611140884127991</v>
       </c>
       <c r="E25">
-        <v>6.672818902893511</v>
+        <v>6.672818902893709</v>
       </c>
       <c r="F25">
         <v>9.104960883498592</v>
       </c>
       <c r="G25">
-        <v>7.856567728552008</v>
+        <v>7.856567728552051</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>37.86499712003507</v>
+        <v>37.86499712003558</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2749138787575305</v>
+        <v>0.2749064913429891</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1034547072000436</v>
+        <v>0.1029743819867583</v>
       </c>
       <c r="E2">
-        <v>3.257699012679296</v>
+        <v>3.257290246385452</v>
       </c>
       <c r="F2">
-        <v>3.267630655446808</v>
+        <v>3.259726085095537</v>
       </c>
       <c r="G2">
-        <v>2.713230396558998</v>
+        <v>0.9503357462341171</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.757573163412275</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.79661400216241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.79244052983285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2389662643963817</v>
+        <v>0.2389615452793663</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07156775693510653</v>
+        <v>0.07122881870645159</v>
       </c>
       <c r="E3">
-        <v>2.738034650435551</v>
+        <v>2.737769877555436</v>
       </c>
       <c r="F3">
-        <v>2.574885752445383</v>
+        <v>2.568935080603907</v>
       </c>
       <c r="G3">
-        <v>2.120005350538349</v>
+        <v>0.7435195667733723</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.373525400217432</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.79729517053764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.79465043566145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2173563756610974</v>
+        <v>0.2173528454797236</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05597453962571564</v>
+        <v>0.05570323220787188</v>
       </c>
       <c r="E4">
-        <v>2.441949542010519</v>
+        <v>2.441743505467301</v>
       </c>
       <c r="F4">
-        <v>2.207834554711837</v>
+        <v>2.202851963748856</v>
       </c>
       <c r="G4">
-        <v>1.80796805823438</v>
+        <v>0.6340964633193238</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.17210493438661</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.08203123408489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.08005367330762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086433636724081</v>
+        <v>0.2086402440307324</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05034978575898563</v>
+        <v>0.05010274854230801</v>
       </c>
       <c r="E5">
-        <v>2.325445626006896</v>
+        <v>2.325259187164662</v>
       </c>
       <c r="F5">
-        <v>2.069146991989825</v>
+        <v>2.064519238426541</v>
       </c>
       <c r="G5">
-        <v>1.690544977237693</v>
+        <v>0.5927736923969604</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.096446645526555</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.40593813395941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.40418892522169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2072016421316931</v>
+        <v>0.2071985869919217</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04945372460529285</v>
+        <v>0.04921055107642403</v>
       </c>
       <c r="E6">
-        <v>2.306314160061348</v>
+        <v>2.306130772995814</v>
       </c>
       <c r="F6">
-        <v>2.046689533506878</v>
+        <v>2.042118697064694</v>
       </c>
       <c r="G6">
-        <v>1.671557501611915</v>
+        <v>0.5860832468620885</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.084220755366459</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.29485332813991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.29313990549076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.217238517621638</v>
+        <v>0.2172349932387192</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05589601600746974</v>
+        <v>0.0556250476978235</v>
       </c>
       <c r="E7">
-        <v>2.440363242927404</v>
+        <v>2.440157485394863</v>
       </c>
       <c r="F7">
-        <v>2.205924108611384</v>
+        <v>2.200946445166508</v>
       </c>
       <c r="G7">
-        <v>1.806348657214116</v>
+        <v>0.6335271645257592</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.171060953199742</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.07283000450278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.07085567594135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2624071371618868</v>
+        <v>0.2624007941295758</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09143071402947811</v>
+        <v>0.09100431608110782</v>
       </c>
       <c r="E8">
-        <v>3.072544905733665</v>
+        <v>3.072194555677072</v>
       </c>
       <c r="F8">
-        <v>3.013903834819942</v>
+        <v>3.006735521876962</v>
       </c>
       <c r="G8">
-        <v>2.495357146654854</v>
+        <v>0.8745365498692905</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.616381762561403</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.72970779043351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.72613771807482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3562954054008003</v>
+        <v>0.3562755381089886</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2161481581135121</v>
+        <v>0.2151035107820363</v>
       </c>
       <c r="E9">
-        <v>4.632611870417321</v>
+        <v>4.631322139020966</v>
       </c>
       <c r="F9">
-        <v>5.374539025767547</v>
+        <v>5.35928913766648</v>
       </c>
       <c r="G9">
-        <v>4.54387293430544</v>
+        <v>1.582198248549361</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.947925487838162</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>26.64255257377496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>26.63076037553611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E10">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F10">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G10">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E11">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F11">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G11">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E12">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F12">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G12">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E13">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F13">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G13">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E14">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F14">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G14">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E15">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F15">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G15">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E16">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F16">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G16">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E17">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F17">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G17">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E18">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F18">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G18">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E19">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F19">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G19">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E20">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F20">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G20">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E21">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F21">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G21">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E22">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F22">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G22">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E23">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F23">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G23">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E24">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F24">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G24">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.86499712003558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.80672558661536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4348112165613429</v>
+        <v>0.4347244392988898</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4611140884127991</v>
+        <v>0.4578143228643441</v>
       </c>
       <c r="E25">
-        <v>6.672818902893709</v>
+        <v>6.663848993086987</v>
       </c>
       <c r="F25">
-        <v>9.104960883498592</v>
+        <v>9.062173934219885</v>
       </c>
       <c r="G25">
-        <v>7.856567728552051</v>
+        <v>2.709478459644544</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.105194810368602</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>37.86499712003558</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>37.80672558661536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2749064913429891</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1029743819867583</v>
+        <v>0.1857253111753181</v>
       </c>
       <c r="E2">
-        <v>3.257290246385452</v>
+        <v>0.04728974613875891</v>
       </c>
       <c r="F2">
-        <v>3.259726085095537</v>
+        <v>10.46606482325646</v>
       </c>
       <c r="G2">
-        <v>0.9503357462341171</v>
+        <v>0.0006565270313544107</v>
       </c>
       <c r="H2">
-        <v>1.757573163412275</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3678533825408437</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.79244052983285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>8.518794527723145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2389615452793663</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07122881870645159</v>
+        <v>0.1554439418545428</v>
       </c>
       <c r="E3">
-        <v>2.737769877555436</v>
+        <v>0.04329014508786422</v>
       </c>
       <c r="F3">
-        <v>2.568935080603907</v>
+        <v>8.825921444097446</v>
       </c>
       <c r="G3">
-        <v>0.7435195667733723</v>
+        <v>0.0006841353635211178</v>
       </c>
       <c r="H3">
-        <v>1.373525400217432</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3128667258892364</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.79465043566145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.165746169598947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2173528454797236</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05570323220787188</v>
+        <v>0.1382956451633959</v>
       </c>
       <c r="E4">
-        <v>2.441743505467301</v>
+        <v>0.04108853155296366</v>
       </c>
       <c r="F4">
-        <v>2.202851963748856</v>
+        <v>7.900209324014099</v>
       </c>
       <c r="G4">
-        <v>0.6340964633193238</v>
+        <v>0.0007006882838015459</v>
       </c>
       <c r="H4">
-        <v>1.17210493438661</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2819182253467005</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.08005367330762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>6.4017730655587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086402440307324</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05010274854230801</v>
+        <v>0.1315777496823074</v>
       </c>
       <c r="E5">
-        <v>2.325259187164662</v>
+        <v>0.04024254611760725</v>
       </c>
       <c r="F5">
-        <v>2.064519238426541</v>
+        <v>7.538649298833548</v>
       </c>
       <c r="G5">
-        <v>0.5927736923969604</v>
+        <v>0.0007073828616732682</v>
       </c>
       <c r="H5">
-        <v>1.096446645526555</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2698514341725513</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.40418892522169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6.103300291524647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2071985869919217</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04921055107642403</v>
+        <v>0.1304763718241588</v>
       </c>
       <c r="E6">
-        <v>2.306130772995814</v>
+        <v>0.04010485864697344</v>
       </c>
       <c r="F6">
-        <v>2.042118697064694</v>
+        <v>7.479445724683643</v>
       </c>
       <c r="G6">
-        <v>0.5860832468620885</v>
+        <v>0.0007084925930107025</v>
       </c>
       <c r="H6">
-        <v>1.084220755366459</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2678768039575203</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.29313990549076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.054421649107752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2172349932387192</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0556250476978235</v>
+        <v>0.1382040536352633</v>
       </c>
       <c r="E7">
-        <v>2.440157485394863</v>
+        <v>0.04107692917452432</v>
       </c>
       <c r="F7">
-        <v>2.200946445166508</v>
+        <v>7.895275018146009</v>
       </c>
       <c r="G7">
-        <v>0.6335271645257592</v>
+        <v>0.0007007787202984831</v>
       </c>
       <c r="H7">
-        <v>1.171060953199742</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.281753461699779</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.07085567594135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6.397700082485329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2624007941295758</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09100431608110782</v>
+        <v>0.1749178571033241</v>
       </c>
       <c r="E8">
-        <v>3.072194555677072</v>
+        <v>0.0458489233413939</v>
       </c>
       <c r="F8">
-        <v>3.006735521876962</v>
+        <v>9.880260553456026</v>
       </c>
       <c r="G8">
-        <v>0.8745365498692905</v>
+        <v>0.0006661642583174476</v>
       </c>
       <c r="H8">
-        <v>1.616381762561403</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3481944735420086</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.72613771807482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.035590094027128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3562755381089886</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2151035107820363</v>
+        <v>0.265325330513889</v>
       </c>
       <c r="E9">
-        <v>4.631322139020966</v>
+        <v>0.05814236309029752</v>
       </c>
       <c r="F9">
-        <v>5.35928913766648</v>
+        <v>14.76845770388059</v>
       </c>
       <c r="G9">
-        <v>1.582198248549361</v>
+        <v>0.0005915049990962672</v>
       </c>
       <c r="H9">
-        <v>2.947925487838162</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5126979166899446</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.63076037553611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>12.06696261456796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4578143228643441</v>
+        <v>0.3651052546289719</v>
       </c>
       <c r="E10">
-        <v>6.663848993086987</v>
+        <v>0.07173946869771797</v>
       </c>
       <c r="F10">
-        <v>9.062173934219885</v>
+        <v>20.04983757805087</v>
       </c>
       <c r="G10">
-        <v>2.709478459644544</v>
+        <v>0.000521326056339264</v>
       </c>
       <c r="H10">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6910661131534823</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>16.42455802389892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4578143228643441</v>
+        <v>0.43882044432209</v>
       </c>
       <c r="E11">
-        <v>6.663848993086987</v>
+        <v>0.08138433966966119</v>
       </c>
       <c r="F11">
-        <v>9.062173934219885</v>
+        <v>23.81319166056267</v>
       </c>
       <c r="G11">
-        <v>2.709478459644544</v>
+        <v>0.0004757756177552561</v>
       </c>
       <c r="H11">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8181735337144289</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>19.53370451539507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4578143228643441</v>
+        <v>0.4822348747236163</v>
       </c>
       <c r="E12">
-        <v>6.663848993086987</v>
+        <v>0.08680397582794797</v>
       </c>
       <c r="F12">
-        <v>9.062173934219885</v>
+        <v>25.9579101113718</v>
       </c>
       <c r="G12">
-        <v>2.709478459644544</v>
+        <v>0.0004511246402332212</v>
       </c>
       <c r="H12">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8904966753357257</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>21.30795201834169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4578143228643441</v>
+        <v>0.4713510807002024</v>
       </c>
       <c r="E13">
-        <v>6.663848993086987</v>
+        <v>0.08546646461356744</v>
       </c>
       <c r="F13">
-        <v>9.062173934219885</v>
+        <v>25.42575703066512</v>
       </c>
       <c r="G13">
-        <v>2.709478459644544</v>
+        <v>0.0004571606717175756</v>
       </c>
       <c r="H13">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.8725638803187366</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>20.86753015740862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4578143228643441</v>
+        <v>0.4418486321392692</v>
       </c>
       <c r="E14">
-        <v>6.663848993086987</v>
+        <v>0.08176939788265969</v>
       </c>
       <c r="F14">
-        <v>9.062173934219885</v>
+        <v>23.96464412857688</v>
       </c>
       <c r="G14">
-        <v>2.709478459644544</v>
+        <v>0.0004740058580236372</v>
       </c>
       <c r="H14">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8232845774383719</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>19.65893161328583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4578143228643441</v>
+        <v>0.4267346292492533</v>
       </c>
       <c r="E15">
-        <v>6.663848993086987</v>
+        <v>0.07983782149653962</v>
       </c>
       <c r="F15">
-        <v>9.062173934219885</v>
+        <v>23.20609568087707</v>
       </c>
       <c r="G15">
-        <v>2.709478459644544</v>
+        <v>0.0004829160400555921</v>
       </c>
       <c r="H15">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7976813544275245</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>19.03182159518184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4578143228643441</v>
+        <v>0.3612813247995916</v>
       </c>
       <c r="E16">
-        <v>6.663848993086987</v>
+        <v>0.07122701663843145</v>
       </c>
       <c r="F16">
-        <v>9.062173934219885</v>
+        <v>19.85095507607468</v>
       </c>
       <c r="G16">
-        <v>2.709478459644544</v>
+        <v>0.000523824556893147</v>
       </c>
       <c r="H16">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6843459054984748</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>16.26036512219363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4578143228643441</v>
+        <v>0.330782104584614</v>
       </c>
       <c r="E17">
-        <v>6.663848993086987</v>
+        <v>0.06710762177981167</v>
       </c>
       <c r="F17">
-        <v>9.062173934219885</v>
+        <v>18.25350207772351</v>
       </c>
       <c r="G17">
-        <v>2.709478459644544</v>
+        <v>0.0005442667867737996</v>
       </c>
       <c r="H17">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6303700850857723</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>14.94187678553885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4578143228643441</v>
+        <v>0.3151890226074556</v>
       </c>
       <c r="E18">
-        <v>6.663848993086987</v>
+        <v>0.06498319812506992</v>
       </c>
       <c r="F18">
-        <v>9.062173934219885</v>
+        <v>17.42968611546661</v>
       </c>
       <c r="G18">
-        <v>2.709478459644544</v>
+        <v>0.0005550855993673856</v>
       </c>
       <c r="H18">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6025396874736799</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>14.26212688191936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4578143228643441</v>
+        <v>0.3101678336439306</v>
       </c>
       <c r="E19">
-        <v>6.663848993086987</v>
+        <v>0.06429704173334727</v>
       </c>
       <c r="F19">
-        <v>9.062173934219885</v>
+        <v>17.1634721494525</v>
       </c>
       <c r="G19">
-        <v>2.709478459644544</v>
+        <v>0.0005586246813002294</v>
       </c>
       <c r="H19">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5935477225938826</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>14.04249260658906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4578143228643441</v>
+        <v>0.3338063399648235</v>
       </c>
       <c r="E20">
-        <v>6.663848993086987</v>
+        <v>0.0675183768291383</v>
       </c>
       <c r="F20">
-        <v>9.062173934219885</v>
+        <v>18.41274831492029</v>
       </c>
       <c r="G20">
-        <v>2.709478459644544</v>
+        <v>0.0005421979497868364</v>
       </c>
       <c r="H20">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6357503716472053</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>15.07328923187026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4578143228643441</v>
+        <v>0.449778665558938</v>
       </c>
       <c r="E21">
-        <v>6.663848993086987</v>
+        <v>0.08277298503086072</v>
       </c>
       <c r="F21">
-        <v>9.062173934219885</v>
+        <v>24.3599779113211</v>
       </c>
       <c r="G21">
-        <v>2.709478459644544</v>
+        <v>0.0004694076077483935</v>
       </c>
       <c r="H21">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8366234487929489</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>19.98585316149521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4578143228643441</v>
+        <v>0.449778665558938</v>
       </c>
       <c r="E22">
-        <v>6.663848993086987</v>
+        <v>0.08277298503086072</v>
       </c>
       <c r="F22">
-        <v>9.062173934219885</v>
+        <v>24.3599779113211</v>
       </c>
       <c r="G22">
-        <v>2.709478459644544</v>
+        <v>0.0004694076077483935</v>
       </c>
       <c r="H22">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8366234487929489</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>19.98585316149521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4578143228643441</v>
+        <v>0.5260151710320713</v>
       </c>
       <c r="E23">
-        <v>6.663848993086987</v>
+        <v>0.09202583156529798</v>
       </c>
       <c r="F23">
-        <v>9.062173934219885</v>
+        <v>28.05845082854478</v>
       </c>
       <c r="G23">
-        <v>2.709478459644544</v>
+        <v>0.0004277835061287045</v>
       </c>
       <c r="H23">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9611763311616244</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>23.0478201353136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4578143228643441</v>
+        <v>0.332433338533292</v>
       </c>
       <c r="E24">
-        <v>6.663848993086987</v>
+        <v>0.0673319497004492</v>
       </c>
       <c r="F24">
-        <v>9.062173934219885</v>
+        <v>18.34047262093424</v>
       </c>
       <c r="G24">
-        <v>2.709478459644544</v>
+        <v>0.000543136032744575</v>
       </c>
       <c r="H24">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6333084490846375</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.80672558661536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>15.01364559734799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4347244392988898</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4578143228643441</v>
+        <v>0.2375655438940356</v>
       </c>
       <c r="E25">
-        <v>6.663848993086987</v>
+        <v>0.05432943080040609</v>
       </c>
       <c r="F25">
-        <v>9.062173934219885</v>
+        <v>13.27305279505623</v>
       </c>
       <c r="G25">
-        <v>2.709478459644544</v>
+        <v>0.0006131141909396025</v>
       </c>
       <c r="H25">
-        <v>5.105194810368602</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4622799307113752</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>37.80672558661536</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.83372245849762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5743734707881458</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1857253111753181</v>
+        <v>0.04128106328294479</v>
       </c>
       <c r="E2">
-        <v>0.04728974613875891</v>
+        <v>0.1217252314914958</v>
       </c>
       <c r="F2">
-        <v>10.46606482325646</v>
+        <v>0.9205802881788543</v>
       </c>
       <c r="G2">
-        <v>0.0006565270313544107</v>
+        <v>0.8522818942695665</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5722837825172888</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6686966053502168</v>
       </c>
       <c r="J2">
-        <v>0.3678533825408437</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.549300717667137</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2299533035159413</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1824773295742332</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.518794527723145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5049258245988142</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1554439418545428</v>
+        <v>0.04025555776059164</v>
       </c>
       <c r="E3">
-        <v>0.04329014508786422</v>
+        <v>0.1214838628779003</v>
       </c>
       <c r="F3">
-        <v>8.825921444097446</v>
+        <v>0.8580697552521173</v>
       </c>
       <c r="G3">
-        <v>0.0006841353635211178</v>
+        <v>0.7968572515276833</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5539057476288036</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6775169772110772</v>
       </c>
       <c r="J3">
-        <v>0.3128667258892364</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.35460177818095</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2021394544506592</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1604230456235065</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.165746169598947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4626094785468098</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1382956451633959</v>
+        <v>0.03962198088298052</v>
       </c>
       <c r="E4">
-        <v>0.04108853155296366</v>
+        <v>0.1213709771039264</v>
       </c>
       <c r="F4">
-        <v>7.900209324014099</v>
+        <v>0.8213799500654915</v>
       </c>
       <c r="G4">
-        <v>0.0007006882838015459</v>
+        <v>0.7645439299623007</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.543612598259557</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6839674429105393</v>
       </c>
       <c r="J4">
-        <v>0.2819182253467005</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.235395669380495</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1852824862520777</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1470129886891733</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.4017730655587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4454385731335293</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1315777496823074</v>
+        <v>0.03936276775183956</v>
       </c>
       <c r="E5">
-        <v>0.04024254611760725</v>
+        <v>0.1213334526994307</v>
       </c>
       <c r="F5">
-        <v>7.538649298833548</v>
+        <v>0.8068263395356325</v>
       </c>
       <c r="G5">
-        <v>0.0007073828616732682</v>
+        <v>0.7517794066502717</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5396543013484347</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6868474762882357</v>
       </c>
       <c r="J5">
-        <v>0.2698514341725513</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.186875415865813</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.178463225833454</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1415780406619973</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.103300291524647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4425915535579037</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1304763718241588</v>
+        <v>0.03931966263312248</v>
       </c>
       <c r="E6">
-        <v>0.04010485864697344</v>
+        <v>0.1213277227232252</v>
       </c>
       <c r="F6">
-        <v>7.479445724683643</v>
+        <v>0.8044329696667276</v>
       </c>
       <c r="G6">
-        <v>0.0007084925930107025</v>
+        <v>0.7496834304571962</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.539010933025466</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6873406406956235</v>
       </c>
       <c r="J6">
-        <v>0.2678768039575203</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.178821327921213</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1773337650198101</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1406772769529461</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.054421649107752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.4623776193665208</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1382040536352633</v>
+        <v>0.0396184892444893</v>
       </c>
       <c r="E7">
-        <v>0.04107692917452432</v>
+        <v>0.1213704372178288</v>
       </c>
       <c r="F7">
-        <v>7.895275018146009</v>
+        <v>0.8211820997922814</v>
       </c>
       <c r="G7">
-        <v>0.0007007787202984831</v>
+        <v>0.7643701861870937</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5435582753175225</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.684005277329824</v>
       </c>
       <c r="J7">
-        <v>0.281753461699779</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.234741112700135</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1851903234715166</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1469395747754554</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.397700082485329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5503553297124029</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1749178571033241</v>
+        <v>0.04092825276752166</v>
       </c>
       <c r="E8">
-        <v>0.0458489233413939</v>
+        <v>0.1216344235768823</v>
       </c>
       <c r="F8">
-        <v>9.880260553456026</v>
+        <v>0.8986583349249884</v>
       </c>
       <c r="G8">
-        <v>0.0006661642583174476</v>
+        <v>0.8327972998411894</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5657333029892868</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.671517688830285</v>
       </c>
       <c r="J8">
-        <v>0.3481944735420086</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.482080371804528</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2203138691005506</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1748437126089222</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.035590094027128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.7258654029281217</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.265325330513889</v>
+        <v>0.04346815833924111</v>
       </c>
       <c r="E9">
-        <v>0.05814236309029752</v>
+        <v>0.1224526056495385</v>
       </c>
       <c r="F9">
-        <v>14.76845770388059</v>
+        <v>1.065351986151796</v>
       </c>
       <c r="G9">
-        <v>0.0005915049990962672</v>
+        <v>0.9819897247937774</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6177088372454449</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6556592292517252</v>
       </c>
       <c r="J9">
-        <v>0.5126979166899446</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.971198726990622</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2912084522225484</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.230765966967077</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.06696261456796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.8572537577208834</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3651052546289719</v>
+        <v>0.04532131312740972</v>
       </c>
       <c r="E10">
-        <v>0.07173946869771797</v>
+        <v>0.1232687717424952</v>
       </c>
       <c r="F10">
-        <v>20.04983757805087</v>
+        <v>1.198829876271176</v>
       </c>
       <c r="G10">
-        <v>0.000521326056339264</v>
+        <v>1.102818433322767</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6620120782374102</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6498913137250284</v>
       </c>
       <c r="J10">
-        <v>0.6910661131534823</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.335164201185279</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.344924299382356</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2728269154188823</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.42455802389892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.9177058050419475</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.43882044432209</v>
+        <v>0.04616281798127986</v>
       </c>
       <c r="E11">
-        <v>0.08138433966966119</v>
+        <v>0.1236949828969163</v>
       </c>
       <c r="F11">
-        <v>23.81319166056267</v>
+        <v>1.262430034604222</v>
       </c>
       <c r="G11">
-        <v>0.0004757756177552561</v>
+        <v>1.16072472488608</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.683723753367417</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6486946114701908</v>
       </c>
       <c r="J11">
-        <v>0.8181735337144289</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.502261060135481</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3698117185028167</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2922316861125935</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.53370451539507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.9407089322026536</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4822348747236163</v>
+        <v>0.04648138007116742</v>
       </c>
       <c r="E12">
-        <v>0.08680397582794797</v>
+        <v>0.1238650663518257</v>
       </c>
       <c r="F12">
-        <v>25.9579101113718</v>
+        <v>1.286972267071718</v>
       </c>
       <c r="G12">
-        <v>0.0004511246402332212</v>
+        <v>1.183120990105152</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6921903018937314</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6484602990616821</v>
       </c>
       <c r="J12">
-        <v>0.8904966753357257</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.565802771433397</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3793096221443619</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2996239645270435</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.30795201834169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.9357496301689423</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4713510807002024</v>
+        <v>0.04641277426862089</v>
       </c>
       <c r="E13">
-        <v>0.08546646461356744</v>
+        <v>0.1238280358996366</v>
       </c>
       <c r="F13">
-        <v>25.42575703066512</v>
+        <v>1.281665536194652</v>
       </c>
       <c r="G13">
-        <v>0.0004571606717175756</v>
+        <v>1.178275953278728</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6903556407899032</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6485008000794892</v>
       </c>
       <c r="J13">
-        <v>0.8725638803187366</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.552105327488107</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3772606614089824</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2980298568540718</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.86753015740862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.9195959780240912</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4418486321392692</v>
+        <v>0.0461890274830381</v>
       </c>
       <c r="E14">
-        <v>0.08176939788265969</v>
+        <v>0.1237087968112958</v>
       </c>
       <c r="F14">
-        <v>23.96464412857688</v>
+        <v>1.264439689395928</v>
       </c>
       <c r="G14">
-        <v>0.0004740058580236372</v>
+        <v>1.16255761648253</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6844152695524031</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6486708663255882</v>
       </c>
       <c r="J14">
-        <v>0.8232845774383719</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.507483069496942</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3705915902485657</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2928389382917302</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.65893161328583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.9097162929701597</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4267346292492533</v>
+        <v>0.0460519672624855</v>
       </c>
       <c r="E15">
-        <v>0.07983782149653962</v>
+        <v>0.1236369157165464</v>
       </c>
       <c r="F15">
-        <v>23.20609568087707</v>
+        <v>1.253949407830191</v>
       </c>
       <c r="G15">
-        <v>0.0004829160400555921</v>
+        <v>1.152992101152137</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6808091497107682</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6488039611185386</v>
       </c>
       <c r="J15">
-        <v>0.7976813544275245</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.480186698488126</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3665164414353512</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.28966525522209</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.03182159518184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.8533179073033921</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3612813247995916</v>
+        <v>0.04526629826579409</v>
       </c>
       <c r="E16">
-        <v>0.07122701663843145</v>
+        <v>0.1232420883260712</v>
       </c>
       <c r="F16">
-        <v>19.85095507607468</v>
+        <v>1.194735096704008</v>
       </c>
       <c r="G16">
-        <v>0.000523824556893147</v>
+        <v>1.099097099689914</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6606262542518664</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6499993795782686</v>
       </c>
       <c r="J16">
-        <v>0.6843459054984748</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.324278610516899</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.343307659284477</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2715646517928718</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.26036512219363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.8189031821514163</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.330782104584614</v>
+        <v>0.04478400919471426</v>
       </c>
       <c r="E17">
-        <v>0.06710762177981167</v>
+        <v>0.1230144742474781</v>
       </c>
       <c r="F17">
-        <v>18.25350207772351</v>
+        <v>1.159176944229046</v>
       </c>
       <c r="G17">
-        <v>0.0005442667867737996</v>
+        <v>1.066818636373085</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6486579506898522</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6511076200696237</v>
       </c>
       <c r="J17">
-        <v>0.6303700850857723</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.229056746739133</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3291914461478029</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2605334638225685</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.94187678553885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.7991721718775864</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3151890226074556</v>
+        <v>0.04450645947652987</v>
       </c>
       <c r="E18">
-        <v>0.06498319812506992</v>
+        <v>0.1228886746213664</v>
       </c>
       <c r="F18">
-        <v>17.42968611546661</v>
+        <v>1.138993103010762</v>
       </c>
       <c r="G18">
-        <v>0.0005550855993673856</v>
+        <v>1.048526762755117</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6419193907086509</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6518785034141814</v>
       </c>
       <c r="J18">
-        <v>0.6025396874736799</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.174428392437108</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3211141442104264</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2542137959767636</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.26212688191936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.7925021036760427</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3101678336439306</v>
+        <v>0.04441245686218309</v>
       </c>
       <c r="E19">
-        <v>0.06429704173334727</v>
+        <v>0.1228469376204027</v>
       </c>
       <c r="F19">
-        <v>17.1634721494525</v>
+        <v>1.132203994888457</v>
       </c>
       <c r="G19">
-        <v>0.0005586246813002294</v>
+        <v>1.04237915709831</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.639662179669088</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6521620340137773</v>
       </c>
       <c r="J19">
-        <v>0.5935477225938826</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.155955003104253</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3183862662329489</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2520782397672505</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.04249260658906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.8225600323792719</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3338063399648235</v>
+        <v>0.0448353643919468</v>
       </c>
       <c r="E20">
-        <v>0.0675183768291383</v>
+        <v>0.123038169070063</v>
       </c>
       <c r="F20">
-        <v>18.41274831492029</v>
+        <v>1.162934098473897</v>
       </c>
       <c r="G20">
-        <v>0.0005421979497868364</v>
+        <v>1.070226074532343</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6499168150392052</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6509757388272988</v>
       </c>
       <c r="J20">
-        <v>0.6357503716472053</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.239178389032446</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3306897372534365</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2617051106989159</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.07328923187026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.9243375686767195</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.449778665558938</v>
+        <v>0.04625474894400483</v>
       </c>
       <c r="E21">
-        <v>0.08277298503086072</v>
+        <v>0.1237435777050209</v>
       </c>
       <c r="F21">
-        <v>24.3599779113211</v>
+        <v>1.26948653202416</v>
       </c>
       <c r="G21">
-        <v>0.0004694076077483935</v>
+        <v>1.167161377854882</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6861532818711282</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6486148600618904</v>
       </c>
       <c r="J21">
-        <v>0.8366234487929489</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.52058210710257</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3725483890173678</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2943623966569362</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.98585316149521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.9915103466786661</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.449778665558938</v>
+        <v>0.0471818993585984</v>
       </c>
       <c r="E22">
-        <v>0.08277298503086072</v>
+        <v>0.1242556740448437</v>
       </c>
       <c r="F22">
-        <v>24.3599779113211</v>
+        <v>1.34181888210405</v>
       </c>
       <c r="G22">
-        <v>0.0004694076077483935</v>
+        <v>1.233268519452224</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7112738289910681</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6483546665537219</v>
       </c>
       <c r="J22">
-        <v>0.8366234487929489</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.706069251011684</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4003388360601861</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3159656377368947</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.98585316149521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.9555944201319448</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5260151710320713</v>
+        <v>0.04668706315514726</v>
       </c>
       <c r="E23">
-        <v>0.09202583156529798</v>
+        <v>0.1239773989533548</v>
       </c>
       <c r="F23">
-        <v>28.05845082854478</v>
+        <v>1.302951667393884</v>
       </c>
       <c r="G23">
-        <v>0.0004277835061287045</v>
+        <v>1.197717769915187</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6977275987514702</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6483713669945317</v>
       </c>
       <c r="J23">
-        <v>0.9611763311616244</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.606910928129423</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3854638588613426</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3044099990605744</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.0478201353136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.8209066016927125</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.332433338533292</v>
+        <v>0.04481214757342755</v>
       </c>
       <c r="E24">
-        <v>0.0673319497004492</v>
+        <v>0.1230274409421677</v>
       </c>
       <c r="F24">
-        <v>18.34047262093424</v>
+        <v>1.161234685551378</v>
       </c>
       <c r="G24">
-        <v>0.000543136032744575</v>
+        <v>1.068684748333894</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6493472411660406</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6510349467807117</v>
       </c>
       <c r="J24">
-        <v>0.6333084490846375</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.234602036788971</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3300122411998814</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2611753400417989</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.01364559734799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.6780042189426183</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2375655438940356</v>
+        <v>0.04278368707385383</v>
       </c>
       <c r="E25">
-        <v>0.05432943080040609</v>
+        <v>0.1221960299364016</v>
       </c>
       <c r="F25">
-        <v>13.27305279505623</v>
+        <v>1.018478346004116</v>
       </c>
       <c r="G25">
-        <v>0.0006131141909396025</v>
+        <v>0.9398186712734855</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.602646389576563</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6589639198088619</v>
       </c>
       <c r="J25">
-        <v>0.4622799307113752</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.838233273543722</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2717741358002712</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2154848836251269</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.83372245849762</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5743734707881458</v>
+        <v>0.5332579521459593</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04128106328294479</v>
+        <v>0.04165017798536041</v>
       </c>
       <c r="E2">
-        <v>0.1217252314914958</v>
+        <v>0.2296257539761362</v>
       </c>
       <c r="F2">
-        <v>0.9205802881788543</v>
+        <v>1.125842357355864</v>
       </c>
       <c r="G2">
-        <v>0.8522818942695665</v>
+        <v>0.9914331776683838</v>
       </c>
       <c r="H2">
-        <v>0.5722837825172888</v>
+        <v>0.9955867276757004</v>
       </c>
       <c r="I2">
-        <v>0.6686966053502168</v>
+        <v>1.302672202578215</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.549300717667137</v>
+        <v>0.4569920692926814</v>
       </c>
       <c r="L2">
-        <v>0.2299533035159413</v>
+        <v>0.1756469897096622</v>
       </c>
       <c r="M2">
-        <v>0.1824773295742332</v>
+        <v>0.1559747625650907</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5049258245988142</v>
+        <v>0.5161907166284152</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04025555776059164</v>
+        <v>0.04111306026143069</v>
       </c>
       <c r="E3">
-        <v>0.1214838628779003</v>
+        <v>0.2297578485753311</v>
       </c>
       <c r="F3">
-        <v>0.8580697552521173</v>
+        <v>1.116667221472056</v>
       </c>
       <c r="G3">
-        <v>0.7968572515276833</v>
+        <v>0.9833350096654812</v>
       </c>
       <c r="H3">
-        <v>0.5539057476288036</v>
+        <v>0.9967228563899795</v>
       </c>
       <c r="I3">
-        <v>0.6775169772110772</v>
+        <v>1.311400116601803</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.35460177818095</v>
+        <v>0.3981808411910208</v>
       </c>
       <c r="L3">
-        <v>0.2021394544506592</v>
+        <v>0.1689583613377295</v>
       </c>
       <c r="M3">
-        <v>0.1604230456235065</v>
+        <v>0.1506173307572141</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4626094785468098</v>
+        <v>0.5059383394914079</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03962198088298052</v>
+        <v>0.04077871432305002</v>
       </c>
       <c r="E4">
-        <v>0.1213709771039264</v>
+        <v>0.2298533937188978</v>
       </c>
       <c r="F4">
-        <v>0.8213799500654915</v>
+        <v>1.11171347993163</v>
       </c>
       <c r="G4">
-        <v>0.7645439299623007</v>
+        <v>0.9790028559401804</v>
       </c>
       <c r="H4">
-        <v>0.543612598259557</v>
+        <v>0.9978943221015868</v>
       </c>
       <c r="I4">
-        <v>0.6839674429105393</v>
+        <v>1.317277965508413</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.235395669380495</v>
+        <v>0.361983814306825</v>
       </c>
       <c r="L4">
-        <v>0.1852824862520777</v>
+        <v>0.1649460447981994</v>
       </c>
       <c r="M4">
-        <v>0.1470129886891733</v>
+        <v>0.1474013908382545</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4454385731335293</v>
+        <v>0.501817873994014</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03936276775183956</v>
+        <v>0.04064133067080888</v>
       </c>
       <c r="E5">
-        <v>0.1213334526994307</v>
+        <v>0.2298959672477805</v>
       </c>
       <c r="F5">
-        <v>0.8068263395356325</v>
+        <v>1.10986556612368</v>
       </c>
       <c r="G5">
-        <v>0.7517794066502717</v>
+        <v>0.9773981607796003</v>
       </c>
       <c r="H5">
-        <v>0.5396543013484347</v>
+        <v>0.9984908486363935</v>
       </c>
       <c r="I5">
-        <v>0.6868474762882357</v>
+        <v>1.31980372438289</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.186875415865813</v>
+        <v>0.3472116977558528</v>
       </c>
       <c r="L5">
-        <v>0.178463225833454</v>
+        <v>0.1633348087207338</v>
       </c>
       <c r="M5">
-        <v>0.1415780406619973</v>
+        <v>0.1461094508330802</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4425915535579037</v>
+        <v>0.5011371557896922</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03931966263312248</v>
+        <v>0.04061844996970976</v>
       </c>
       <c r="E6">
-        <v>0.1213277227232252</v>
+        <v>0.2299032565052244</v>
       </c>
       <c r="F6">
-        <v>0.8044329696667276</v>
+        <v>1.109569030878276</v>
       </c>
       <c r="G6">
-        <v>0.7496834304571962</v>
+        <v>0.9771413996517566</v>
       </c>
       <c r="H6">
-        <v>0.539010933025466</v>
+        <v>0.9985970970243301</v>
       </c>
       <c r="I6">
-        <v>0.6873406406956235</v>
+        <v>1.320231006230198</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.178821327921213</v>
+        <v>0.3447575064163004</v>
       </c>
       <c r="L6">
-        <v>0.1773337650198101</v>
+        <v>0.1630687039515379</v>
       </c>
       <c r="M6">
-        <v>0.1406772769529461</v>
+        <v>0.1458960500696875</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4623776193665208</v>
+        <v>0.5058825362782216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0396184892444893</v>
+        <v>0.04077686610126108</v>
       </c>
       <c r="E7">
-        <v>0.1213704372178288</v>
+        <v>0.2298539531389663</v>
       </c>
       <c r="F7">
-        <v>0.8211820997922814</v>
+        <v>1.111687867085891</v>
       </c>
       <c r="G7">
-        <v>0.7643701861870937</v>
+        <v>0.9789805641949414</v>
       </c>
       <c r="H7">
-        <v>0.5435582753175225</v>
+        <v>0.9979018846792655</v>
       </c>
       <c r="I7">
-        <v>0.684005277329824</v>
+        <v>1.317311500422317</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.234741112700135</v>
+        <v>0.361784679209876</v>
       </c>
       <c r="L7">
-        <v>0.1851903234715166</v>
+        <v>0.1649242186160933</v>
       </c>
       <c r="M7">
-        <v>0.1469395747754554</v>
+        <v>0.1473838919297954</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5503553297124029</v>
+        <v>0.5273262858086696</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04092825276752166</v>
+        <v>0.04146593069248894</v>
       </c>
       <c r="E8">
-        <v>0.1216344235768823</v>
+        <v>0.2296683078289075</v>
       </c>
       <c r="F8">
-        <v>0.8986583349249884</v>
+        <v>1.122537562331203</v>
       </c>
       <c r="G8">
-        <v>0.8327972998411894</v>
+        <v>0.9885078921376191</v>
       </c>
       <c r="H8">
-        <v>0.5657333029892868</v>
+        <v>0.9958800997181356</v>
       </c>
       <c r="I8">
-        <v>0.671517688830285</v>
+        <v>1.305573902364785</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.482080371804528</v>
+        <v>0.436732092370363</v>
       </c>
       <c r="L8">
-        <v>0.2203138691005506</v>
+        <v>0.173321156022638</v>
       </c>
       <c r="M8">
-        <v>0.1748437126089222</v>
+        <v>0.1541123065798722</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7258654029281217</v>
+        <v>0.5711640402330715</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04346815833924111</v>
+        <v>0.04278067660737861</v>
       </c>
       <c r="E9">
-        <v>0.1224526056495385</v>
+        <v>0.2294185232952737</v>
       </c>
       <c r="F9">
-        <v>1.065351986151796</v>
+        <v>1.149218372888839</v>
       </c>
       <c r="G9">
-        <v>0.9819897247937774</v>
+        <v>1.012285235987093</v>
       </c>
       <c r="H9">
-        <v>0.6177088372454449</v>
+        <v>0.995677153213137</v>
       </c>
       <c r="I9">
-        <v>0.6556592292517252</v>
+        <v>1.286673187137865</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.971198726990622</v>
+        <v>0.5830114418057804</v>
       </c>
       <c r="L9">
-        <v>0.2912084522225484</v>
+        <v>0.1905366339437933</v>
       </c>
       <c r="M9">
-        <v>0.230765966967077</v>
+        <v>0.1678872259830904</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8572537577208834</v>
+        <v>0.6044455282485899</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04532131312740972</v>
+        <v>0.04372394983199257</v>
       </c>
       <c r="E10">
-        <v>0.1232687717424952</v>
+        <v>0.2293043074169328</v>
       </c>
       <c r="F10">
-        <v>1.198829876271176</v>
+        <v>1.172133879037133</v>
       </c>
       <c r="G10">
-        <v>1.102818433322767</v>
+        <v>1.032884138009138</v>
       </c>
       <c r="H10">
-        <v>0.6620120782374102</v>
+        <v>0.9978252720655831</v>
       </c>
       <c r="I10">
-        <v>0.6498913137250284</v>
+        <v>1.275296283989377</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.335164201185279</v>
+        <v>0.690065655173612</v>
       </c>
       <c r="L10">
-        <v>0.344924299382356</v>
+        <v>0.2036418574777343</v>
       </c>
       <c r="M10">
-        <v>0.2728269154188823</v>
+        <v>0.1783587406808209</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9177058050419475</v>
+        <v>0.6198163558669876</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04616281798127986</v>
+        <v>0.04414806731963949</v>
       </c>
       <c r="E11">
-        <v>0.1236949828969163</v>
+        <v>0.229267326435405</v>
       </c>
       <c r="F11">
-        <v>1.262430034604222</v>
+        <v>1.183282329637876</v>
       </c>
       <c r="G11">
-        <v>1.16072472488608</v>
+        <v>1.042940077454205</v>
       </c>
       <c r="H11">
-        <v>0.683723753367417</v>
+        <v>0.9993022919011594</v>
       </c>
       <c r="I11">
-        <v>0.6486946114701908</v>
+        <v>1.270665540034308</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.502261060135481</v>
+        <v>0.7386785353841958</v>
       </c>
       <c r="L11">
-        <v>0.3698117185028167</v>
+        <v>0.2097031746808398</v>
       </c>
       <c r="M11">
-        <v>0.2922316861125935</v>
+        <v>0.1831982241992591</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9407089322026536</v>
+        <v>0.6256697629877408</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04648138007116742</v>
+        <v>0.04430794489668344</v>
       </c>
       <c r="E12">
-        <v>0.1238650663518257</v>
+        <v>0.2292554705093339</v>
       </c>
       <c r="F12">
-        <v>1.286972267071718</v>
+        <v>1.18760833765019</v>
       </c>
       <c r="G12">
-        <v>1.183120990105152</v>
+        <v>1.046846924476455</v>
       </c>
       <c r="H12">
-        <v>0.6921903018937314</v>
+        <v>0.9999335291648492</v>
       </c>
       <c r="I12">
-        <v>0.6484602990616821</v>
+        <v>1.268990322946834</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.565802771433397</v>
+        <v>0.7570744150374082</v>
       </c>
       <c r="L12">
-        <v>0.3793096221443619</v>
+        <v>0.2120127522169071</v>
       </c>
       <c r="M12">
-        <v>0.2996239645270435</v>
+        <v>0.1850416609389285</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9357496301689423</v>
+        <v>0.6244076741687081</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04641277426862089</v>
+        <v>0.04427354487003043</v>
       </c>
       <c r="E13">
-        <v>0.1238280358996366</v>
+        <v>0.2292579284507896</v>
       </c>
       <c r="F13">
-        <v>1.281665536194652</v>
+        <v>1.186672010885033</v>
       </c>
       <c r="G13">
-        <v>1.178275953278728</v>
+        <v>1.046001112188378</v>
       </c>
       <c r="H13">
-        <v>0.6903556407899032</v>
+        <v>0.9997943814247776</v>
       </c>
       <c r="I13">
-        <v>0.6485008000794892</v>
+        <v>1.26934762613427</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.552105327488107</v>
+        <v>0.7531131057060634</v>
       </c>
       <c r="L13">
-        <v>0.3772606614089824</v>
+        <v>0.2115147086325919</v>
       </c>
       <c r="M13">
-        <v>0.2980298568540718</v>
+        <v>0.1846441636529832</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9195959780240912</v>
+        <v>0.6202972639311213</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0461890274830381</v>
+        <v>0.0441612351615106</v>
       </c>
       <c r="E14">
-        <v>0.1237087968112958</v>
+        <v>0.2292663080239192</v>
       </c>
       <c r="F14">
-        <v>1.264439689395928</v>
+        <v>1.183636140750679</v>
       </c>
       <c r="G14">
-        <v>1.16255761648253</v>
+        <v>1.043259512545887</v>
       </c>
       <c r="H14">
-        <v>0.6844152695524031</v>
+        <v>0.9993527824777573</v>
       </c>
       <c r="I14">
-        <v>0.6486708663255882</v>
+        <v>1.270526148632129</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.507483069496942</v>
+        <v>0.7401922330130901</v>
       </c>
       <c r="L14">
-        <v>0.3705915902485657</v>
+        <v>0.2098928989215381</v>
       </c>
       <c r="M14">
-        <v>0.2928389382917302</v>
+        <v>0.1833496683301234</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9097162929701597</v>
+        <v>0.6177837798488497</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0460519672624855</v>
+        <v>0.04409234731323863</v>
       </c>
       <c r="E15">
-        <v>0.1236369157165464</v>
+        <v>0.2292717203210541</v>
       </c>
       <c r="F15">
-        <v>1.253949407830191</v>
+        <v>1.181790175958895</v>
       </c>
       <c r="G15">
-        <v>1.152992101152137</v>
+        <v>1.041593090370782</v>
       </c>
       <c r="H15">
-        <v>0.6808091497107682</v>
+        <v>0.9990916581298279</v>
       </c>
       <c r="I15">
-        <v>0.6488039611185386</v>
+        <v>1.271258231219527</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.480186698488126</v>
+        <v>0.7322761542189653</v>
       </c>
       <c r="L15">
-        <v>0.3665164414353512</v>
+        <v>0.2089013530252686</v>
       </c>
       <c r="M15">
-        <v>0.28966525522209</v>
+        <v>0.1825581601884849</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8533179073033921</v>
+        <v>0.6034456211056067</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04526629826579409</v>
+        <v>0.04369613163526509</v>
       </c>
       <c r="E16">
-        <v>0.1232420883260712</v>
+        <v>0.2293070250885316</v>
       </c>
       <c r="F16">
-        <v>1.194735096704008</v>
+        <v>1.171419889804341</v>
       </c>
       <c r="G16">
-        <v>1.099097099689914</v>
+        <v>1.032240778164294</v>
       </c>
       <c r="H16">
-        <v>0.6606262542518664</v>
+        <v>0.9977388072044704</v>
       </c>
       <c r="I16">
-        <v>0.6499993795782686</v>
+        <v>1.275609876022948</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.324278610516899</v>
+        <v>0.6868869197794538</v>
       </c>
       <c r="L16">
-        <v>0.343307659284477</v>
+        <v>0.2032477380981419</v>
       </c>
       <c r="M16">
-        <v>0.2715646517928718</v>
+        <v>0.1780439893864951</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8189031821514163</v>
+        <v>0.5947084843840855</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04478400919471426</v>
+        <v>0.0434517828500276</v>
       </c>
       <c r="E17">
-        <v>0.1230144742474781</v>
+        <v>0.2293325151571253</v>
       </c>
       <c r="F17">
-        <v>1.159176944229046</v>
+        <v>1.165243657688251</v>
       </c>
       <c r="G17">
-        <v>1.066818636373085</v>
+        <v>1.026679213088386</v>
       </c>
       <c r="H17">
-        <v>0.6486579506898522</v>
+        <v>0.9970369286634337</v>
       </c>
       <c r="I17">
-        <v>0.6511076200696237</v>
+        <v>1.278418987474254</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.229056746739133</v>
+        <v>0.6590196896713962</v>
       </c>
       <c r="L17">
-        <v>0.3291914461478029</v>
+        <v>0.1998049271981301</v>
       </c>
       <c r="M17">
-        <v>0.2605334638225685</v>
+        <v>0.1752940770363303</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7991721718775864</v>
+        <v>0.5897048725188654</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04450645947652987</v>
+        <v>0.04331077152736995</v>
       </c>
       <c r="E18">
-        <v>0.1228886746213664</v>
+        <v>0.2293485863428328</v>
       </c>
       <c r="F18">
-        <v>1.138993103010762</v>
+        <v>1.16175939281375</v>
       </c>
       <c r="G18">
-        <v>1.048526762755117</v>
+        <v>1.023544841420502</v>
       </c>
       <c r="H18">
-        <v>0.6419193907086509</v>
+        <v>0.9966802701821251</v>
       </c>
       <c r="I18">
-        <v>0.6518785034141814</v>
+        <v>1.280085979280614</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.174428392437108</v>
+        <v>0.6429830611968157</v>
       </c>
       <c r="L18">
-        <v>0.3211141442104264</v>
+        <v>0.1978340990381184</v>
       </c>
       <c r="M18">
-        <v>0.2542137959767636</v>
+        <v>0.1737195533089633</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7925021036760427</v>
+        <v>0.5880144846034625</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04441245686218309</v>
+        <v>0.04326294738463687</v>
       </c>
       <c r="E19">
-        <v>0.1228469376204027</v>
+        <v>0.2293542701087663</v>
       </c>
       <c r="F19">
-        <v>1.132203994888457</v>
+        <v>1.16059137735347</v>
       </c>
       <c r="G19">
-        <v>1.04237915709831</v>
+        <v>1.022494664028613</v>
       </c>
       <c r="H19">
-        <v>0.639662179669088</v>
+        <v>0.9965675900951965</v>
       </c>
       <c r="I19">
-        <v>0.6521620340137773</v>
+        <v>1.280659198221421</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.155955003104253</v>
+        <v>0.6375519466103867</v>
       </c>
       <c r="L19">
-        <v>0.3183862662329489</v>
+        <v>0.1971684238901474</v>
       </c>
       <c r="M19">
-        <v>0.2520782397672505</v>
+        <v>0.1731876779509243</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8225600323792719</v>
+        <v>0.5956363185028977</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0448353643919468</v>
+        <v>0.04347784274224509</v>
       </c>
       <c r="E20">
-        <v>0.123038169070063</v>
+        <v>0.2293296558112257</v>
       </c>
       <c r="F20">
-        <v>1.162934098473897</v>
+        <v>1.16589407432248</v>
       </c>
       <c r="G20">
-        <v>1.070226074532343</v>
+        <v>1.027264574016584</v>
       </c>
       <c r="H20">
-        <v>0.6499168150392052</v>
+        <v>0.9971067756648466</v>
       </c>
       <c r="I20">
-        <v>0.6509757388272988</v>
+        <v>1.278114646841324</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.239178389032446</v>
+        <v>0.6619870480499799</v>
       </c>
       <c r="L20">
-        <v>0.3306897372534365</v>
+        <v>0.2001704492574277</v>
       </c>
       <c r="M20">
-        <v>0.2617051106989159</v>
+        <v>0.1755860702365588</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9243375686767195</v>
+        <v>0.6215037037983961</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04625474894400483</v>
+        <v>0.04419424304159492</v>
       </c>
       <c r="E21">
-        <v>0.1237435777050209</v>
+        <v>0.2292637884884741</v>
       </c>
       <c r="F21">
-        <v>1.26948653202416</v>
+        <v>1.184525016187152</v>
       </c>
       <c r="G21">
-        <v>1.167161377854882</v>
+        <v>1.044062100653861</v>
       </c>
       <c r="H21">
-        <v>0.6861532818711282</v>
+        <v>0.9994805384756944</v>
       </c>
       <c r="I21">
-        <v>0.6486148600618904</v>
+        <v>1.270177861559759</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.52058210710257</v>
+        <v>0.7439877553473195</v>
       </c>
       <c r="L21">
-        <v>0.3725483890173678</v>
+        <v>0.2103688763360054</v>
       </c>
       <c r="M21">
-        <v>0.2943623966569362</v>
+        <v>0.1837295997996051</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9915103466786661</v>
+        <v>0.6386005846701437</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0471818993585984</v>
+        <v>0.04465821286481741</v>
       </c>
       <c r="E22">
-        <v>0.1242556740448437</v>
+        <v>0.2292332579617034</v>
       </c>
       <c r="F22">
-        <v>1.34181888210405</v>
+        <v>1.197309636424578</v>
       </c>
       <c r="G22">
-        <v>1.233268519452224</v>
+        <v>1.055616758430773</v>
       </c>
       <c r="H22">
-        <v>0.7112738289910681</v>
+        <v>1.001451167796375</v>
       </c>
       <c r="I22">
-        <v>0.6483546665537219</v>
+        <v>1.265447379688965</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.706069251011684</v>
+        <v>0.797505424966829</v>
       </c>
       <c r="L22">
-        <v>0.4003388360601861</v>
+        <v>0.2171173995245965</v>
       </c>
       <c r="M22">
-        <v>0.3159656377368947</v>
+        <v>0.1891149471873277</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9555944201319448</v>
+        <v>0.6294583070639419</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04668706315514726</v>
+        <v>0.0444109745985557</v>
       </c>
       <c r="E23">
-        <v>0.1239773989533548</v>
+        <v>0.229248409110097</v>
       </c>
       <c r="F23">
-        <v>1.302951667393884</v>
+        <v>1.190430521981312</v>
       </c>
       <c r="G23">
-        <v>1.197717769915187</v>
+        <v>1.049396963838888</v>
       </c>
       <c r="H23">
-        <v>0.6977275987514702</v>
+        <v>1.000361029870902</v>
       </c>
       <c r="I23">
-        <v>0.6483713669945317</v>
+        <v>1.267930334362305</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.606910928129423</v>
+        <v>0.7689489578889095</v>
       </c>
       <c r="L23">
-        <v>0.3854638588613426</v>
+        <v>0.2135079825184221</v>
       </c>
       <c r="M23">
-        <v>0.3044099990605744</v>
+        <v>0.1862349439271185</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8209066016927125</v>
+        <v>0.5952167839771789</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04481214757342755</v>
+        <v>0.0434660627205723</v>
       </c>
       <c r="E24">
-        <v>0.1230274409421677</v>
+        <v>0.2293309441100275</v>
       </c>
       <c r="F24">
-        <v>1.161234685551378</v>
+        <v>1.165599813726914</v>
       </c>
       <c r="G24">
-        <v>1.068684748333894</v>
+        <v>1.026999735976929</v>
       </c>
       <c r="H24">
-        <v>0.6493472411660406</v>
+        <v>0.9970750518638027</v>
       </c>
       <c r="I24">
-        <v>0.6510349467807117</v>
+        <v>1.27825207727367</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.234602036788971</v>
+        <v>0.6606455532386519</v>
       </c>
       <c r="L24">
-        <v>0.3300122411998814</v>
+        <v>0.2000051702870849</v>
       </c>
       <c r="M24">
-        <v>0.2611753400417989</v>
+        <v>0.1754540400521591</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6780042189426183</v>
+        <v>0.5591150837915109</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04278368707385383</v>
+        <v>0.0424289550505712</v>
       </c>
       <c r="E25">
-        <v>0.1221960299364016</v>
+        <v>0.2294739016773422</v>
       </c>
       <c r="F25">
-        <v>1.018478346004116</v>
+        <v>1.141420011718893</v>
       </c>
       <c r="G25">
-        <v>0.9398186712734855</v>
+        <v>1.005304965817231</v>
       </c>
       <c r="H25">
-        <v>0.602646389576563</v>
+        <v>0.9953289264458078</v>
       </c>
       <c r="I25">
-        <v>0.6589639198088619</v>
+        <v>1.29134563235317</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.838233273543722</v>
+        <v>0.5435126337835925</v>
       </c>
       <c r="L25">
-        <v>0.2717741358002712</v>
+        <v>0.185799160110264</v>
       </c>
       <c r="M25">
-        <v>0.2154848836251269</v>
+        <v>0.1640988897789555</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5332579521459593</v>
+        <v>0.5743734707883164</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04165017798536041</v>
+        <v>0.04128106328299452</v>
       </c>
       <c r="E2">
-        <v>0.2296257539761362</v>
+        <v>0.1217252314914958</v>
       </c>
       <c r="F2">
-        <v>1.125842357355864</v>
+        <v>0.9205802881788685</v>
       </c>
       <c r="G2">
-        <v>0.9914331776683838</v>
+        <v>0.8522818942696091</v>
       </c>
       <c r="H2">
-        <v>0.9955867276757004</v>
+        <v>0.5722837825171894</v>
       </c>
       <c r="I2">
-        <v>1.302672202578215</v>
+        <v>0.6686966053502346</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4569920692926814</v>
+        <v>1.549300717667109</v>
       </c>
       <c r="L2">
-        <v>0.1756469897096622</v>
+        <v>0.2299533035157282</v>
       </c>
       <c r="M2">
-        <v>0.1559747625650907</v>
+        <v>0.1824773295742297</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5161907166284152</v>
+        <v>0.5049258245989279</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04111306026143069</v>
+        <v>0.04025555776059164</v>
       </c>
       <c r="E3">
-        <v>0.2297578485753311</v>
+        <v>0.121483862877886</v>
       </c>
       <c r="F3">
-        <v>1.116667221472056</v>
+        <v>0.8580697552521173</v>
       </c>
       <c r="G3">
-        <v>0.9833350096654812</v>
+        <v>0.7968572515276975</v>
       </c>
       <c r="H3">
-        <v>0.9967228563899795</v>
+        <v>0.5539057476287752</v>
       </c>
       <c r="I3">
-        <v>1.311400116601803</v>
+        <v>0.6775169772110701</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3981808411910208</v>
+        <v>1.354601778181035</v>
       </c>
       <c r="L3">
-        <v>0.1689583613377295</v>
+        <v>0.2021394544505739</v>
       </c>
       <c r="M3">
-        <v>0.1506173307572141</v>
+        <v>0.1604230456234923</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5059383394914079</v>
+        <v>0.4626094785467956</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04077871432305002</v>
+        <v>0.03962198088298408</v>
       </c>
       <c r="E4">
-        <v>0.2298533937188978</v>
+        <v>0.1213709771039113</v>
       </c>
       <c r="F4">
-        <v>1.11171347993163</v>
+        <v>0.8213799500654844</v>
       </c>
       <c r="G4">
-        <v>0.9790028559401804</v>
+        <v>0.7645439299623717</v>
       </c>
       <c r="H4">
-        <v>0.9978943221015868</v>
+        <v>0.5436125982595712</v>
       </c>
       <c r="I4">
-        <v>1.317277965508413</v>
+        <v>0.6839674429105571</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.361983814306825</v>
+        <v>1.235395669380495</v>
       </c>
       <c r="L4">
-        <v>0.1649460447981994</v>
+        <v>0.1852824862520208</v>
       </c>
       <c r="M4">
-        <v>0.1474013908382545</v>
+        <v>0.1470129886891804</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.501817873994014</v>
+        <v>0.4454385731335861</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04064133067080888</v>
+        <v>0.03936276775172232</v>
       </c>
       <c r="E5">
-        <v>0.2298959672477805</v>
+        <v>0.1213334526994174</v>
       </c>
       <c r="F5">
-        <v>1.10986556612368</v>
+        <v>0.8068263395356183</v>
       </c>
       <c r="G5">
-        <v>0.9773981607796003</v>
+        <v>0.7517794066502717</v>
       </c>
       <c r="H5">
-        <v>0.9984908486363935</v>
+        <v>0.5396543013485484</v>
       </c>
       <c r="I5">
-        <v>1.31980372438289</v>
+        <v>0.6868474762882322</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3472116977558528</v>
+        <v>1.186875415865842</v>
       </c>
       <c r="L5">
-        <v>0.1633348087207338</v>
+        <v>0.178463225833454</v>
       </c>
       <c r="M5">
-        <v>0.1461094508330802</v>
+        <v>0.1415780406620009</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5011371557896922</v>
+        <v>0.4425915535580032</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04061844996970976</v>
+        <v>0.03931966263318998</v>
       </c>
       <c r="E6">
-        <v>0.2299032565052244</v>
+        <v>0.1213277227232545</v>
       </c>
       <c r="F6">
-        <v>1.109569030878276</v>
+        <v>0.8044329696667205</v>
       </c>
       <c r="G6">
-        <v>0.9771413996517566</v>
+        <v>0.749683430457182</v>
       </c>
       <c r="H6">
-        <v>0.9985970970243301</v>
+        <v>0.5390109330255797</v>
       </c>
       <c r="I6">
-        <v>1.320231006230198</v>
+        <v>0.6873406406956306</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3447575064163004</v>
+        <v>1.178821327921298</v>
       </c>
       <c r="L6">
-        <v>0.1630687039515379</v>
+        <v>0.1773337650197959</v>
       </c>
       <c r="M6">
-        <v>0.1458960500696875</v>
+        <v>0.1406772769529638</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5058825362782216</v>
+        <v>0.4623776193665208</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04077686610126108</v>
+        <v>0.03961848924471312</v>
       </c>
       <c r="E7">
-        <v>0.2298539531389663</v>
+        <v>0.1213704372178102</v>
       </c>
       <c r="F7">
-        <v>1.111687867085891</v>
+        <v>0.8211820997922743</v>
       </c>
       <c r="G7">
-        <v>0.9789805641949414</v>
+        <v>0.7643701861870795</v>
       </c>
       <c r="H7">
-        <v>0.9979018846792655</v>
+        <v>0.5435582753174089</v>
       </c>
       <c r="I7">
-        <v>1.317311500422317</v>
+        <v>0.6840052773298275</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.361784679209876</v>
+        <v>1.234741112700192</v>
       </c>
       <c r="L7">
-        <v>0.1649242186160933</v>
+        <v>0.1851903234715309</v>
       </c>
       <c r="M7">
-        <v>0.1473838919297954</v>
+        <v>0.1469395747754518</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5273262858086696</v>
+        <v>0.5503553297123744</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04146593069248894</v>
+        <v>0.04092825276740086</v>
       </c>
       <c r="E8">
-        <v>0.2296683078289075</v>
+        <v>0.1216344235768965</v>
       </c>
       <c r="F8">
-        <v>1.122537562331203</v>
+        <v>0.8986583349249742</v>
       </c>
       <c r="G8">
-        <v>0.9885078921376191</v>
+        <v>0.8327972998411752</v>
       </c>
       <c r="H8">
-        <v>0.9958800997181356</v>
+        <v>0.5657333029892868</v>
       </c>
       <c r="I8">
-        <v>1.305573902364785</v>
+        <v>0.6715176888303098</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.436732092370363</v>
+        <v>1.482080371804557</v>
       </c>
       <c r="L8">
-        <v>0.173321156022638</v>
+        <v>0.2203138691004796</v>
       </c>
       <c r="M8">
-        <v>0.1541123065798722</v>
+        <v>0.174843712608908</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5711640402330715</v>
+        <v>0.7258654029282923</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04278067660737861</v>
+        <v>0.04346815833924111</v>
       </c>
       <c r="E9">
-        <v>0.2294185232952737</v>
+        <v>0.1224526056494994</v>
       </c>
       <c r="F9">
-        <v>1.149218372888839</v>
+        <v>1.065351986151768</v>
       </c>
       <c r="G9">
-        <v>1.012285235987093</v>
+        <v>0.9819897247937917</v>
       </c>
       <c r="H9">
-        <v>0.995677153213137</v>
+        <v>0.6177088372455586</v>
       </c>
       <c r="I9">
-        <v>1.286673187137865</v>
+        <v>0.6556592292517252</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5830114418057804</v>
+        <v>1.97119872699065</v>
       </c>
       <c r="L9">
-        <v>0.1905366339437933</v>
+        <v>0.2912084522225058</v>
       </c>
       <c r="M9">
-        <v>0.1678872259830904</v>
+        <v>0.2307659669670699</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6044455282485899</v>
+        <v>0.857253757720855</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04372394983199257</v>
+        <v>0.04532131312752696</v>
       </c>
       <c r="E10">
-        <v>0.2293043074169328</v>
+        <v>0.1232687717425094</v>
       </c>
       <c r="F10">
-        <v>1.172133879037133</v>
+        <v>1.198829876271191</v>
       </c>
       <c r="G10">
-        <v>1.032884138009138</v>
+        <v>1.102818433322781</v>
       </c>
       <c r="H10">
-        <v>0.9978252720655831</v>
+        <v>0.6620120782374102</v>
       </c>
       <c r="I10">
-        <v>1.275296283989377</v>
+        <v>0.6498913137250355</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.690065655173612</v>
+        <v>2.33516420118525</v>
       </c>
       <c r="L10">
-        <v>0.2036418574777343</v>
+        <v>0.344924299382356</v>
       </c>
       <c r="M10">
-        <v>0.1783587406808209</v>
+        <v>0.2728269154189036</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6198163558669876</v>
+        <v>0.9177058050420897</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04414806731963949</v>
+        <v>0.04616281798135091</v>
       </c>
       <c r="E11">
-        <v>0.229267326435405</v>
+        <v>0.1236949828969145</v>
       </c>
       <c r="F11">
-        <v>1.183282329637876</v>
+        <v>1.262430034604222</v>
       </c>
       <c r="G11">
-        <v>1.042940077454205</v>
+        <v>1.160724724886052</v>
       </c>
       <c r="H11">
-        <v>0.9993022919011594</v>
+        <v>0.683723753367417</v>
       </c>
       <c r="I11">
-        <v>1.270665540034308</v>
+        <v>0.6486946114702121</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7386785353841958</v>
+        <v>2.502261060135481</v>
       </c>
       <c r="L11">
-        <v>0.2097031746808398</v>
+        <v>0.3698117185027883</v>
       </c>
       <c r="M11">
-        <v>0.1831982241992591</v>
+        <v>0.2922316861126006</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6256697629877408</v>
+        <v>0.940708932202682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04430794489668344</v>
+        <v>0.04648138007106439</v>
       </c>
       <c r="E12">
-        <v>0.2292554705093339</v>
+        <v>0.1238650663518426</v>
       </c>
       <c r="F12">
-        <v>1.18760833765019</v>
+        <v>1.286972267071704</v>
       </c>
       <c r="G12">
-        <v>1.046846924476455</v>
+        <v>1.183120990105124</v>
       </c>
       <c r="H12">
-        <v>0.9999335291648492</v>
+        <v>0.6921903018937314</v>
       </c>
       <c r="I12">
-        <v>1.268990322946834</v>
+        <v>0.6484602990616821</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7570744150374082</v>
+        <v>2.565802771433312</v>
       </c>
       <c r="L12">
-        <v>0.2120127522169071</v>
+        <v>0.3793096221444472</v>
       </c>
       <c r="M12">
-        <v>0.1850416609389285</v>
+        <v>0.2996239645270435</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6244076741687081</v>
+        <v>0.9357496301689423</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04427354487003043</v>
+        <v>0.04641277426873103</v>
       </c>
       <c r="E13">
-        <v>0.2292579284507896</v>
+        <v>0.1238280358996171</v>
       </c>
       <c r="F13">
-        <v>1.186672010885033</v>
+        <v>1.28166553619468</v>
       </c>
       <c r="G13">
-        <v>1.046001112188378</v>
+        <v>1.178275953278757</v>
       </c>
       <c r="H13">
-        <v>0.9997943814247776</v>
+        <v>0.6903556407899032</v>
       </c>
       <c r="I13">
-        <v>1.26934762613427</v>
+        <v>0.6485008000794821</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7531131057060634</v>
+        <v>2.552105327488164</v>
       </c>
       <c r="L13">
-        <v>0.2115147086325919</v>
+        <v>0.3772606614089113</v>
       </c>
       <c r="M13">
-        <v>0.1846441636529832</v>
+        <v>0.2980298568540718</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6202972639311213</v>
+        <v>0.9195959780239207</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0441612351615106</v>
+        <v>0.04618902748292442</v>
       </c>
       <c r="E14">
-        <v>0.2292663080239192</v>
+        <v>0.1237087968112869</v>
       </c>
       <c r="F14">
-        <v>1.183636140750679</v>
+        <v>1.264439689395914</v>
       </c>
       <c r="G14">
-        <v>1.043259512545887</v>
+        <v>1.162557616482616</v>
       </c>
       <c r="H14">
-        <v>0.9993527824777573</v>
+        <v>0.6844152695523746</v>
       </c>
       <c r="I14">
-        <v>1.270526148632129</v>
+        <v>0.6486708663255882</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7401922330130901</v>
+        <v>2.507483069497027</v>
       </c>
       <c r="L14">
-        <v>0.2098928989215381</v>
+        <v>0.3705915902486225</v>
       </c>
       <c r="M14">
-        <v>0.1833496683301234</v>
+        <v>0.2928389382917231</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6177837798488497</v>
+        <v>0.9097162929700744</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04409234731323863</v>
+        <v>0.0460519672624855</v>
       </c>
       <c r="E15">
-        <v>0.2292717203210541</v>
+        <v>0.1236369157165385</v>
       </c>
       <c r="F15">
-        <v>1.181790175958895</v>
+        <v>1.253949407830206</v>
       </c>
       <c r="G15">
-        <v>1.041593090370782</v>
+        <v>1.152992101152222</v>
       </c>
       <c r="H15">
-        <v>0.9990916581298279</v>
+        <v>0.6808091497108819</v>
       </c>
       <c r="I15">
-        <v>1.271258231219527</v>
+        <v>0.6488039611185314</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7322761542189653</v>
+        <v>2.480186698488183</v>
       </c>
       <c r="L15">
-        <v>0.2089013530252686</v>
+        <v>0.3665164414353228</v>
       </c>
       <c r="M15">
-        <v>0.1825581601884849</v>
+        <v>0.28966525522209</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6034456211056067</v>
+        <v>0.8533179073035626</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04369613163526509</v>
+        <v>0.04526629826571948</v>
       </c>
       <c r="E16">
-        <v>0.2293070250885316</v>
+        <v>0.1232420883260525</v>
       </c>
       <c r="F16">
-        <v>1.171419889804341</v>
+        <v>1.194735096703994</v>
       </c>
       <c r="G16">
-        <v>1.032240778164294</v>
+        <v>1.099097099689956</v>
       </c>
       <c r="H16">
-        <v>0.9977388072044704</v>
+        <v>0.6606262542518806</v>
       </c>
       <c r="I16">
-        <v>1.275609876022948</v>
+        <v>0.6499993795782686</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6868869197794538</v>
+        <v>2.324278610516956</v>
       </c>
       <c r="L16">
-        <v>0.2032477380981419</v>
+        <v>0.3433076592844628</v>
       </c>
       <c r="M16">
-        <v>0.1780439893864951</v>
+        <v>0.2715646517928718</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5947084843840855</v>
+        <v>0.8189031821514448</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0434517828500276</v>
+        <v>0.04478400919488479</v>
       </c>
       <c r="E17">
-        <v>0.2293325151571253</v>
+        <v>0.1230144742474746</v>
       </c>
       <c r="F17">
-        <v>1.165243657688251</v>
+        <v>1.159176944229046</v>
       </c>
       <c r="G17">
-        <v>1.026679213088386</v>
+        <v>1.066818636373114</v>
       </c>
       <c r="H17">
-        <v>0.9970369286634337</v>
+        <v>0.6486579506899801</v>
       </c>
       <c r="I17">
-        <v>1.278418987474254</v>
+        <v>0.6511076200695953</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6590196896713962</v>
+        <v>2.22905674673919</v>
       </c>
       <c r="L17">
-        <v>0.1998049271981301</v>
+        <v>0.3291914461479024</v>
       </c>
       <c r="M17">
-        <v>0.1752940770363303</v>
+        <v>0.2605334638225898</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5897048725188654</v>
+        <v>0.7991721718775864</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04331077152736995</v>
+        <v>0.04450645947653697</v>
       </c>
       <c r="E18">
-        <v>0.2293485863428328</v>
+        <v>0.1228886746213727</v>
       </c>
       <c r="F18">
-        <v>1.16175939281375</v>
+        <v>1.138993103010776</v>
       </c>
       <c r="G18">
-        <v>1.023544841420502</v>
+        <v>1.048526762755088</v>
       </c>
       <c r="H18">
-        <v>0.9966802701821251</v>
+        <v>0.641919390708793</v>
       </c>
       <c r="I18">
-        <v>1.280085979280614</v>
+        <v>0.6518785034141885</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6429830611968157</v>
+        <v>2.174428392437164</v>
       </c>
       <c r="L18">
-        <v>0.1978340990381184</v>
+        <v>0.3211141442104264</v>
       </c>
       <c r="M18">
-        <v>0.1737195533089633</v>
+        <v>0.2542137959767743</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5880144846034625</v>
+        <v>0.7925021036761279</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04326294738463687</v>
+        <v>0.04441245686207651</v>
       </c>
       <c r="E19">
-        <v>0.2293542701087663</v>
+        <v>0.1228469376204027</v>
       </c>
       <c r="F19">
-        <v>1.16059137735347</v>
+        <v>1.132203994888471</v>
       </c>
       <c r="G19">
-        <v>1.022494664028613</v>
+        <v>1.042379157098324</v>
       </c>
       <c r="H19">
-        <v>0.9965675900951965</v>
+        <v>0.639662179669088</v>
       </c>
       <c r="I19">
-        <v>1.280659198221421</v>
+        <v>0.652162034013763</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6375519466103867</v>
+        <v>2.155955003104282</v>
       </c>
       <c r="L19">
-        <v>0.1971684238901474</v>
+        <v>0.318386266232892</v>
       </c>
       <c r="M19">
-        <v>0.1731876779509243</v>
+        <v>0.2520782397672505</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5956363185028977</v>
+        <v>0.8225600323792719</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04347784274224509</v>
+        <v>0.04483536439178692</v>
       </c>
       <c r="E20">
-        <v>0.2293296558112257</v>
+        <v>0.1230381690700888</v>
       </c>
       <c r="F20">
-        <v>1.16589407432248</v>
+        <v>1.162934098473897</v>
       </c>
       <c r="G20">
-        <v>1.027264574016584</v>
+        <v>1.070226074532385</v>
       </c>
       <c r="H20">
-        <v>0.9971067756648466</v>
+        <v>0.6499168150393189</v>
       </c>
       <c r="I20">
-        <v>1.278114646841324</v>
+        <v>0.6509757388272988</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6619870480499799</v>
+        <v>2.239178389032446</v>
       </c>
       <c r="L20">
-        <v>0.2001704492574277</v>
+        <v>0.3306897372534081</v>
       </c>
       <c r="M20">
-        <v>0.1755860702365588</v>
+        <v>0.2617051106989514</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6215037037983961</v>
+        <v>0.9243375686767479</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04419424304159492</v>
+        <v>0.04625474894392312</v>
       </c>
       <c r="E21">
-        <v>0.2292637884884741</v>
+        <v>0.1237435777050226</v>
       </c>
       <c r="F21">
-        <v>1.184525016187152</v>
+        <v>1.269486532024146</v>
       </c>
       <c r="G21">
-        <v>1.044062100653861</v>
+        <v>1.167161377854853</v>
       </c>
       <c r="H21">
-        <v>0.9994805384756944</v>
+        <v>0.6861532818711567</v>
       </c>
       <c r="I21">
-        <v>1.270177861559759</v>
+        <v>0.6486148600619117</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7439877553473195</v>
+        <v>2.520582107102683</v>
       </c>
       <c r="L21">
-        <v>0.2103688763360054</v>
+        <v>0.3725483890173535</v>
       </c>
       <c r="M21">
-        <v>0.1837295997996051</v>
+        <v>0.2943623966569504</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6386005846701437</v>
+        <v>0.9915103466784672</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04465821286481741</v>
+        <v>0.04718189935871209</v>
       </c>
       <c r="E22">
-        <v>0.2292332579617034</v>
+        <v>0.124255674044857</v>
       </c>
       <c r="F22">
-        <v>1.197309636424578</v>
+        <v>1.34181888210405</v>
       </c>
       <c r="G22">
-        <v>1.055616758430773</v>
+        <v>1.233268519452224</v>
       </c>
       <c r="H22">
-        <v>1.001451167796375</v>
+        <v>0.7112738289910681</v>
       </c>
       <c r="I22">
-        <v>1.265447379688965</v>
+        <v>0.6483546665537148</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.797505424966829</v>
+        <v>2.706069251011712</v>
       </c>
       <c r="L22">
-        <v>0.2171173995245965</v>
+        <v>0.4003388360602145</v>
       </c>
       <c r="M22">
-        <v>0.1891149471873277</v>
+        <v>0.3159656377368734</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6294583070639419</v>
+        <v>0.9555944201319448</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0444109745985557</v>
+        <v>0.04668706315506199</v>
       </c>
       <c r="E23">
-        <v>0.229248409110097</v>
+        <v>0.1239773989533486</v>
       </c>
       <c r="F23">
-        <v>1.190430521981312</v>
+        <v>1.30295166739387</v>
       </c>
       <c r="G23">
-        <v>1.049396963838888</v>
+        <v>1.197717769915187</v>
       </c>
       <c r="H23">
-        <v>1.000361029870902</v>
+        <v>0.6977275987514986</v>
       </c>
       <c r="I23">
-        <v>1.267930334362305</v>
+        <v>0.6483713669945246</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7689489578889095</v>
+        <v>2.606910928129452</v>
       </c>
       <c r="L23">
-        <v>0.2135079825184221</v>
+        <v>0.3854638588613284</v>
       </c>
       <c r="M23">
-        <v>0.1862349439271185</v>
+        <v>0.3044099990605673</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5952167839771789</v>
+        <v>0.8209066016927409</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0434660627205723</v>
+        <v>0.044812147573424</v>
       </c>
       <c r="E24">
-        <v>0.2293309441100275</v>
+        <v>0.123027440942149</v>
       </c>
       <c r="F24">
-        <v>1.165599813726914</v>
+        <v>1.161234685551392</v>
       </c>
       <c r="G24">
-        <v>1.026999735976929</v>
+        <v>1.068684748333851</v>
       </c>
       <c r="H24">
-        <v>0.9970750518638027</v>
+        <v>0.6493472411660406</v>
       </c>
       <c r="I24">
-        <v>1.27825207727367</v>
+        <v>0.6510349467807046</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6606455532386519</v>
+        <v>2.234602036788885</v>
       </c>
       <c r="L24">
-        <v>0.2000051702870849</v>
+        <v>0.330012241199853</v>
       </c>
       <c r="M24">
-        <v>0.1754540400521591</v>
+        <v>0.2611753400417882</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5591150837915109</v>
+        <v>0.6780042189426183</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0424289550505712</v>
+        <v>0.04278368707377922</v>
       </c>
       <c r="E25">
-        <v>0.2294739016773422</v>
+        <v>0.1221960299363989</v>
       </c>
       <c r="F25">
-        <v>1.141420011718893</v>
+        <v>1.01847834600413</v>
       </c>
       <c r="G25">
-        <v>1.005304965817231</v>
+        <v>0.9398186712734855</v>
       </c>
       <c r="H25">
-        <v>0.9953289264458078</v>
+        <v>0.6026463895765772</v>
       </c>
       <c r="I25">
-        <v>1.29134563235317</v>
+        <v>0.6589639198088548</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5435126337835925</v>
+        <v>1.838233273543779</v>
       </c>
       <c r="L25">
-        <v>0.185799160110264</v>
+        <v>0.2717741358003423</v>
       </c>
       <c r="M25">
-        <v>0.1640988897789555</v>
+        <v>0.2154848836251411</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5743734707883164</v>
+        <v>3.382579823018773</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04128106328299452</v>
+        <v>0.2052075306718848</v>
       </c>
       <c r="E2">
-        <v>0.1217252314914958</v>
+        <v>0.2306373754266744</v>
       </c>
       <c r="F2">
-        <v>0.9205802881788685</v>
+        <v>1.252447769948361</v>
       </c>
       <c r="G2">
-        <v>0.8522818942696091</v>
+        <v>0.9129009378936814</v>
       </c>
       <c r="H2">
-        <v>0.5722837825171894</v>
+        <v>0.01499621191391554</v>
       </c>
       <c r="I2">
-        <v>0.6686966053502346</v>
+        <v>0.00226091685459906</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.521256417563535</v>
       </c>
       <c r="K2">
-        <v>1.549300717667109</v>
+        <v>11.52412880593573</v>
       </c>
       <c r="L2">
-        <v>0.2299533035157282</v>
+        <v>0.304631752156709</v>
       </c>
       <c r="M2">
-        <v>0.1824773295742297</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2.978315305392243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5049258245989279</v>
+        <v>2.948045210902649</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04025555776059164</v>
+        <v>0.1900583338122317</v>
       </c>
       <c r="E3">
-        <v>0.121483862877886</v>
+        <v>0.2098549823110751</v>
       </c>
       <c r="F3">
-        <v>0.8580697552521173</v>
+        <v>1.119040430366937</v>
       </c>
       <c r="G3">
-        <v>0.7968572515276975</v>
+        <v>0.8033627102253291</v>
       </c>
       <c r="H3">
-        <v>0.5539057476287752</v>
+        <v>0.01105347003410939</v>
       </c>
       <c r="I3">
-        <v>0.6775169772110701</v>
+        <v>0.003740881385943418</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.472703367291615</v>
       </c>
       <c r="K3">
-        <v>1.354601778181035</v>
+        <v>10.07224184298005</v>
       </c>
       <c r="L3">
-        <v>0.2021394544505739</v>
+        <v>0.2746084294586097</v>
       </c>
       <c r="M3">
-        <v>0.1604230456234923</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2.644154030929883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4626094785467956</v>
+        <v>2.681048148417744</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03962198088298408</v>
+        <v>0.1807805270237779</v>
       </c>
       <c r="E4">
-        <v>0.1213709771039113</v>
+        <v>0.197087009869005</v>
       </c>
       <c r="F4">
-        <v>0.8213799500654844</v>
+        <v>1.037848524217239</v>
       </c>
       <c r="G4">
-        <v>0.7645439299623717</v>
+        <v>0.7366820243289425</v>
       </c>
       <c r="H4">
-        <v>0.5436125982595712</v>
+        <v>0.008858818694302509</v>
       </c>
       <c r="I4">
-        <v>0.6839674429105571</v>
+        <v>0.004900121160077653</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4432567471646252</v>
       </c>
       <c r="K4">
-        <v>1.235395669380495</v>
+        <v>9.189783335065925</v>
       </c>
       <c r="L4">
-        <v>0.1852824862520208</v>
+        <v>0.2561567540553042</v>
       </c>
       <c r="M4">
-        <v>0.1470129886891804</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.440952684584374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4454385731335861</v>
+        <v>2.572190666577455</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03936276775172232</v>
+        <v>0.1770041084574956</v>
       </c>
       <c r="E5">
-        <v>0.1213334526994174</v>
+        <v>0.1918796579923274</v>
       </c>
       <c r="F5">
-        <v>0.8068263395356183</v>
+        <v>1.004924908037793</v>
       </c>
       <c r="G5">
-        <v>0.7517794066502717</v>
+        <v>0.709637451656576</v>
       </c>
       <c r="H5">
-        <v>0.5396543013485484</v>
+        <v>0.008016740777994441</v>
       </c>
       <c r="I5">
-        <v>0.6868474762882322</v>
+        <v>0.005492125352045463</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4313412920228217</v>
       </c>
       <c r="K5">
-        <v>1.186875415865842</v>
+        <v>8.853051793186836</v>
       </c>
       <c r="L5">
-        <v>0.178463225833454</v>
+        <v>0.2486295205539122</v>
       </c>
       <c r="M5">
-        <v>0.1415780406620009</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.358592242713428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4425915535580032</v>
+        <v>2.554139934485761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03931966263318998</v>
+        <v>0.1763772542019737</v>
       </c>
       <c r="E6">
-        <v>0.1213277227232545</v>
+        <v>0.1910146530677572</v>
       </c>
       <c r="F6">
-        <v>0.8044329696667205</v>
+        <v>0.9994672734614767</v>
       </c>
       <c r="G6">
-        <v>0.749683430457182</v>
+        <v>0.7051540054327745</v>
       </c>
       <c r="H6">
-        <v>0.5390109330255797</v>
+        <v>0.007879939267196906</v>
       </c>
       <c r="I6">
-        <v>0.6873406406956306</v>
+        <v>0.005678592604683175</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4293676173463297</v>
       </c>
       <c r="K6">
-        <v>1.178821327921298</v>
+        <v>8.822774377572443</v>
       </c>
       <c r="L6">
-        <v>0.1773337650197959</v>
+        <v>0.2473790396259048</v>
       </c>
       <c r="M6">
-        <v>0.1406772769529638</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.34494183969602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4623776193665208</v>
+        <v>2.679674505376852</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03961848924471312</v>
+        <v>0.1807295813632734</v>
       </c>
       <c r="E7">
-        <v>0.1213704372178102</v>
+        <v>0.1970168022189682</v>
       </c>
       <c r="F7">
-        <v>0.8211820997922743</v>
+        <v>1.037403869622253</v>
       </c>
       <c r="G7">
-        <v>0.7643701861870795</v>
+        <v>0.7363167933367265</v>
       </c>
       <c r="H7">
-        <v>0.5435582753174089</v>
+        <v>0.008847256505673362</v>
       </c>
       <c r="I7">
-        <v>0.6840052773298275</v>
+        <v>0.00512629853047919</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4430957195913976</v>
       </c>
       <c r="K7">
-        <v>1.234741112700192</v>
+        <v>9.255134397703159</v>
       </c>
       <c r="L7">
-        <v>0.1851903234715309</v>
+        <v>0.2560552764102368</v>
       </c>
       <c r="M7">
-        <v>0.1469395747754518</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.439840203334938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5503553297123744</v>
+        <v>3.232954425217486</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04092825276740086</v>
+        <v>0.1999781209539577</v>
       </c>
       <c r="E8">
-        <v>0.1216344235768965</v>
+        <v>0.2234716696852566</v>
       </c>
       <c r="F8">
-        <v>0.8986583349249742</v>
+        <v>1.20628786693166</v>
       </c>
       <c r="G8">
-        <v>0.8327972998411752</v>
+        <v>0.8750023002421727</v>
       </c>
       <c r="H8">
-        <v>0.5657333029892868</v>
+        <v>0.01358696280997107</v>
       </c>
       <c r="I8">
-        <v>0.6715176888303098</v>
+        <v>0.002983637295443486</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5044348639738132</v>
       </c>
       <c r="K8">
-        <v>1.482080371804557</v>
+        <v>11.11520447974803</v>
       </c>
       <c r="L8">
-        <v>0.2203138691004796</v>
+        <v>0.2942810056964902</v>
       </c>
       <c r="M8">
-        <v>0.174843712608908</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2.862655032332754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7258654029282923</v>
+        <v>4.317762104428937</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04346815833924111</v>
+        <v>0.2379932959234026</v>
       </c>
       <c r="E9">
-        <v>0.1224526056494994</v>
+        <v>0.2754067253970405</v>
       </c>
       <c r="F9">
-        <v>1.065351986151768</v>
+        <v>1.544085189981004</v>
       </c>
       <c r="G9">
-        <v>0.9819897247937917</v>
+        <v>1.152339151301192</v>
       </c>
       <c r="H9">
-        <v>0.6177088372455586</v>
+        <v>0.0248946329929598</v>
       </c>
       <c r="I9">
-        <v>0.6556592292517252</v>
+        <v>0.0007709237986919248</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6279840887189039</v>
       </c>
       <c r="K9">
-        <v>1.97119872699065</v>
+        <v>14.71684120082335</v>
       </c>
       <c r="L9">
-        <v>0.2912084522225058</v>
+        <v>0.3692826928723747</v>
       </c>
       <c r="M9">
-        <v>0.2307659669670699</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>3.709933704586945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.857253757720855</v>
+        <v>5.117536575218764</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04532131312752696</v>
+        <v>0.2604487199423602</v>
       </c>
       <c r="E10">
-        <v>0.1232687717425094</v>
+        <v>0.3034744708663197</v>
       </c>
       <c r="F10">
-        <v>1.198829876271191</v>
+        <v>1.774723683564872</v>
       </c>
       <c r="G10">
-        <v>1.102818433322781</v>
+        <v>1.34610518766209</v>
       </c>
       <c r="H10">
-        <v>0.6620120782374102</v>
+        <v>0.03429952728080954</v>
       </c>
       <c r="I10">
-        <v>0.6498913137250355</v>
+        <v>0.001201653848322159</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7142264330510102</v>
       </c>
       <c r="K10">
-        <v>2.33516420118525</v>
+        <v>17.46403937377977</v>
       </c>
       <c r="L10">
-        <v>0.344924299382356</v>
+        <v>0.4080941897067021</v>
       </c>
       <c r="M10">
-        <v>0.2728269154189036</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4.30170747373802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9177058050420897</v>
+        <v>5.483227921780497</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04616281798135091</v>
+        <v>0.2233546388514753</v>
       </c>
       <c r="E11">
-        <v>0.1236949828969145</v>
+        <v>0.2347232115179168</v>
       </c>
       <c r="F11">
-        <v>1.262430034604222</v>
+        <v>1.683694899761207</v>
       </c>
       <c r="G11">
-        <v>1.160724724886052</v>
+        <v>1.310135947180697</v>
       </c>
       <c r="H11">
-        <v>0.683723753367417</v>
+        <v>0.05252127267759832</v>
       </c>
       <c r="I11">
-        <v>0.6486946114702121</v>
+        <v>0.002367729425060361</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6927793480313937</v>
       </c>
       <c r="K11">
-        <v>2.502261060135481</v>
+        <v>18.85368032969564</v>
       </c>
       <c r="L11">
-        <v>0.3698117185027883</v>
+        <v>0.2971522639342083</v>
       </c>
       <c r="M11">
-        <v>0.2922316861126006</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>4.180733887948179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.940708932202682</v>
+        <v>5.621657906775113</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04648138007106439</v>
+        <v>0.1907406311955242</v>
       </c>
       <c r="E12">
-        <v>0.1238650663518426</v>
+        <v>0.1813046817217945</v>
       </c>
       <c r="F12">
-        <v>1.286972267071704</v>
+        <v>1.559892255972883</v>
       </c>
       <c r="G12">
-        <v>1.183120990105124</v>
+        <v>1.238969911002613</v>
       </c>
       <c r="H12">
-        <v>0.6921903018937314</v>
+        <v>0.08977146764149779</v>
       </c>
       <c r="I12">
-        <v>0.6484602990616821</v>
+        <v>0.002685594657812373</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6562754731420171</v>
       </c>
       <c r="K12">
-        <v>2.565802771433312</v>
+        <v>19.31862268951397</v>
       </c>
       <c r="L12">
-        <v>0.3793096221444472</v>
+        <v>0.215982870764023</v>
       </c>
       <c r="M12">
-        <v>0.2996239645270435</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>3.953512456708609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9357496301689423</v>
+        <v>5.591767537636429</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04641277426873103</v>
+        <v>0.1598373736444429</v>
       </c>
       <c r="E13">
-        <v>0.1238280358996171</v>
+        <v>0.1368006231947021</v>
       </c>
       <c r="F13">
-        <v>1.28166553619468</v>
+        <v>1.404496457274092</v>
       </c>
       <c r="G13">
-        <v>1.178275953278757</v>
+        <v>1.137033250489537</v>
       </c>
       <c r="H13">
-        <v>0.6903556407899032</v>
+        <v>0.1431267270613006</v>
       </c>
       <c r="I13">
-        <v>0.6485008000794821</v>
+        <v>0.002565693311898265</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6062410878558353</v>
       </c>
       <c r="K13">
-        <v>2.552105327488164</v>
+        <v>19.20531942921514</v>
       </c>
       <c r="L13">
-        <v>0.3772606614089113</v>
+        <v>0.1532872685762534</v>
       </c>
       <c r="M13">
-        <v>0.2980298568540718</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>3.632649870811008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9195959780239207</v>
+        <v>5.494584521202512</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04618902748292442</v>
+        <v>0.1396268570232451</v>
       </c>
       <c r="E14">
-        <v>0.1237087968112869</v>
+        <v>0.1113289329064706</v>
       </c>
       <c r="F14">
-        <v>1.264439689395914</v>
+        <v>1.282900493778712</v>
       </c>
       <c r="G14">
-        <v>1.162557616482616</v>
+        <v>1.052624768933541</v>
       </c>
       <c r="H14">
-        <v>0.6844152695523746</v>
+        <v>0.1904651362987124</v>
       </c>
       <c r="I14">
-        <v>0.6486708663255882</v>
+        <v>0.002371784973330904</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5654779508186039</v>
       </c>
       <c r="K14">
-        <v>2.507483069497027</v>
+        <v>18.88634122454636</v>
       </c>
       <c r="L14">
-        <v>0.3705915902486225</v>
+        <v>0.1208260792125131</v>
       </c>
       <c r="M14">
-        <v>0.2928389382917231</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>3.368321711477222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9097162929700744</v>
+        <v>5.435211649721907</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0460519672624855</v>
+        <v>0.1346712100384622</v>
       </c>
       <c r="E15">
-        <v>0.1236369157165385</v>
+        <v>0.1057166762035635</v>
       </c>
       <c r="F15">
-        <v>1.253949407830206</v>
+        <v>1.24660717501439</v>
       </c>
       <c r="G15">
-        <v>1.152992101152222</v>
+        <v>1.025678165276076</v>
       </c>
       <c r="H15">
-        <v>0.6808091497108819</v>
+        <v>0.2021622490207875</v>
       </c>
       <c r="I15">
-        <v>0.6488039611185314</v>
+        <v>0.002360979222592263</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5527758070708444</v>
       </c>
       <c r="K15">
-        <v>2.480186698488183</v>
+        <v>18.7169579669777</v>
       </c>
       <c r="L15">
-        <v>0.3665164414353228</v>
+        <v>0.1142462834044053</v>
       </c>
       <c r="M15">
-        <v>0.28966525522209</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3.2845728859715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8533179073035626</v>
+        <v>5.094602465416529</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04526629826571948</v>
+        <v>0.1321440565777721</v>
       </c>
       <c r="E16">
-        <v>0.1232420883260525</v>
+        <v>0.1040983921501493</v>
       </c>
       <c r="F16">
-        <v>1.194735096703994</v>
+        <v>1.182776691968286</v>
       </c>
       <c r="G16">
-        <v>1.099097099689956</v>
+        <v>0.9653508623217846</v>
       </c>
       <c r="H16">
-        <v>0.6606262542518806</v>
+        <v>0.1858369109526734</v>
       </c>
       <c r="I16">
-        <v>0.6499993795782686</v>
+        <v>0.001876167382247829</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5268231504145149</v>
       </c>
       <c r="K16">
-        <v>2.324278610516956</v>
+        <v>17.58794607820835</v>
       </c>
       <c r="L16">
-        <v>0.3433076592844628</v>
+        <v>0.1124209813663342</v>
       </c>
       <c r="M16">
-        <v>0.2715646517928718</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3.102158268487727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8189031821514448</v>
+        <v>4.885989206659872</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04478400919488479</v>
+        <v>0.1404919417646866</v>
       </c>
       <c r="E17">
-        <v>0.1230144742474746</v>
+        <v>0.1152147706854532</v>
       </c>
       <c r="F17">
-        <v>1.159176944229046</v>
+        <v>1.197624073842519</v>
       </c>
       <c r="G17">
-        <v>1.066818636373114</v>
+        <v>0.9635398738693368</v>
       </c>
       <c r="H17">
-        <v>0.6486579506899801</v>
+        <v>0.1463619073775249</v>
       </c>
       <c r="I17">
-        <v>0.6511076200695953</v>
+        <v>0.001730364264286521</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5284379638378169</v>
       </c>
       <c r="K17">
-        <v>2.22905674673919</v>
+        <v>16.89909165923979</v>
       </c>
       <c r="L17">
-        <v>0.3291914461479024</v>
+        <v>0.1260765946189331</v>
       </c>
       <c r="M17">
-        <v>0.2605334638225898</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3.101578329706655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7991721718775864</v>
+        <v>4.765853761231426</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04450645947653697</v>
+        <v>0.1609552013426949</v>
       </c>
       <c r="E18">
-        <v>0.1228886746213727</v>
+        <v>0.1438513208186656</v>
       </c>
       <c r="F18">
-        <v>1.138993103010776</v>
+        <v>1.283304852563717</v>
       </c>
       <c r="G18">
-        <v>1.048526762755088</v>
+        <v>1.012260546548077</v>
       </c>
       <c r="H18">
-        <v>0.641919390708793</v>
+        <v>0.09358482393153622</v>
       </c>
       <c r="I18">
-        <v>0.6518785034141885</v>
+        <v>0.001442733863322054</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5540293964768352</v>
       </c>
       <c r="K18">
-        <v>2.174428392437164</v>
+        <v>16.43940800149016</v>
       </c>
       <c r="L18">
-        <v>0.3211141442104264</v>
+        <v>0.1648673076811207</v>
       </c>
       <c r="M18">
-        <v>0.2542137959767743</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>3.258371541168515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7925021036761279</v>
+        <v>4.725392223402594</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04441245686207651</v>
+        <v>0.1925627610090572</v>
       </c>
       <c r="E19">
-        <v>0.1228469376204027</v>
+        <v>0.1926611192076244</v>
       </c>
       <c r="F19">
-        <v>1.132203994888471</v>
+        <v>1.423299503595089</v>
       </c>
       <c r="G19">
-        <v>1.042379157098324</v>
+        <v>1.099715338489375</v>
       </c>
       <c r="H19">
-        <v>0.639662179669088</v>
+        <v>0.05032862311823294</v>
       </c>
       <c r="I19">
-        <v>0.652162034013763</v>
+        <v>0.001548324453265693</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5976663563214686</v>
       </c>
       <c r="K19">
-        <v>2.155955003104282</v>
+        <v>16.33392900694503</v>
       </c>
       <c r="L19">
-        <v>0.318386266232892</v>
+        <v>0.2367287013732167</v>
       </c>
       <c r="M19">
-        <v>0.2520782397672505</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>3.535110870480139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8225600323792719</v>
+        <v>4.90816401171503</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04483536439178692</v>
+        <v>0.2542942999338464</v>
       </c>
       <c r="E20">
-        <v>0.1230381690700888</v>
+        <v>0.2956616248278365</v>
       </c>
       <c r="F20">
-        <v>1.162934098473897</v>
+        <v>1.7128387200097</v>
       </c>
       <c r="G20">
-        <v>1.070226074532385</v>
+        <v>1.294305016720642</v>
       </c>
       <c r="H20">
-        <v>0.6499168150393189</v>
+        <v>0.03167548206316084</v>
       </c>
       <c r="I20">
-        <v>0.6509757388272988</v>
+        <v>0.001719905060919125</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6911074028796236</v>
       </c>
       <c r="K20">
-        <v>2.239178389032446</v>
+        <v>16.96718881909834</v>
       </c>
       <c r="L20">
-        <v>0.3306897372534081</v>
+        <v>0.3971914512462575</v>
       </c>
       <c r="M20">
-        <v>0.2617051106989514</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>4.143378695458239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9243375686767479</v>
+        <v>5.523485428346078</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04625474894392312</v>
+        <v>0.2805466636791607</v>
       </c>
       <c r="E21">
-        <v>0.1237435777050226</v>
+        <v>0.3332327993997311</v>
       </c>
       <c r="F21">
-        <v>1.269486532024146</v>
+        <v>1.927308039966817</v>
       </c>
       <c r="G21">
-        <v>1.167161377854853</v>
+        <v>1.467111451542138</v>
       </c>
       <c r="H21">
-        <v>0.6861532818711567</v>
+        <v>0.04019239336840297</v>
       </c>
       <c r="I21">
-        <v>0.6486148600619117</v>
+        <v>0.002702293241272358</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7691653483843481</v>
       </c>
       <c r="K21">
-        <v>2.520582107102683</v>
+        <v>19.0530814542908</v>
       </c>
       <c r="L21">
-        <v>0.3725483890173535</v>
+        <v>0.4527744831352578</v>
       </c>
       <c r="M21">
-        <v>0.2943623966569504</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>4.673468597066062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9915103466784672</v>
+        <v>5.926508323456346</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04718189935871209</v>
+        <v>0.2948678124114394</v>
       </c>
       <c r="E22">
-        <v>0.124255674044857</v>
+        <v>0.3526454370083343</v>
       </c>
       <c r="F22">
-        <v>1.34181888210405</v>
+        <v>2.057272335647909</v>
       </c>
       <c r="G22">
-        <v>1.233268519452224</v>
+        <v>1.573927726432458</v>
       </c>
       <c r="H22">
-        <v>0.7112738289910681</v>
+        <v>0.0459071897082306</v>
       </c>
       <c r="I22">
-        <v>0.6483546665537148</v>
+        <v>0.003528557158854362</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8172406397784755</v>
       </c>
       <c r="K22">
-        <v>2.706069251011712</v>
+        <v>20.33691491389084</v>
       </c>
       <c r="L22">
-        <v>0.4003388360602145</v>
+        <v>0.4808054516935414</v>
       </c>
       <c r="M22">
-        <v>0.3159656377368734</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5.000767447104749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9555944201319448</v>
+        <v>5.710813434058196</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04668706315506199</v>
+        <v>0.2872151636255609</v>
       </c>
       <c r="E23">
-        <v>0.1239773989533486</v>
+        <v>0.3422745681313089</v>
       </c>
       <c r="F23">
-        <v>1.30295166739387</v>
+        <v>1.987767446515775</v>
       </c>
       <c r="G23">
-        <v>1.197717769915187</v>
+        <v>1.516797494339954</v>
       </c>
       <c r="H23">
-        <v>0.6977275987514986</v>
+        <v>0.04281937570611882</v>
       </c>
       <c r="I23">
-        <v>0.6483713669945246</v>
+        <v>0.002715883999512059</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.791518765714784</v>
       </c>
       <c r="K23">
-        <v>2.606910928129452</v>
+        <v>19.56216501873087</v>
       </c>
       <c r="L23">
-        <v>0.3854638588613284</v>
+        <v>0.4658301126588071</v>
       </c>
       <c r="M23">
-        <v>0.3044099990605673</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>4.825695243888902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8209066016927409</v>
+        <v>4.897578964285287</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.044812147573424</v>
+        <v>0.2584189790795079</v>
       </c>
       <c r="E24">
-        <v>0.123027440942149</v>
+        <v>0.3031943550646332</v>
       </c>
       <c r="F24">
-        <v>1.161234685551392</v>
+        <v>1.727445812555743</v>
       </c>
       <c r="G24">
-        <v>1.068684748333851</v>
+        <v>1.302917318934732</v>
       </c>
       <c r="H24">
-        <v>0.6493472411660406</v>
+        <v>0.03191297594009068</v>
       </c>
       <c r="I24">
-        <v>0.6510349467807046</v>
+        <v>0.00121840794353556</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6954194084186724</v>
       </c>
       <c r="K24">
-        <v>2.234602036788885</v>
+        <v>16.79929515435532</v>
       </c>
       <c r="L24">
-        <v>0.330012241199853</v>
+        <v>0.4094034945277372</v>
       </c>
       <c r="M24">
-        <v>0.2611753400417882</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>4.170660286305065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6780042189426183</v>
+        <v>4.024421293534886</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04278368707377922</v>
+        <v>0.2276685309031734</v>
       </c>
       <c r="E25">
-        <v>0.1221960299363989</v>
+        <v>0.2613334507810094</v>
       </c>
       <c r="F25">
-        <v>1.01847834600413</v>
+        <v>1.451860035174946</v>
       </c>
       <c r="G25">
-        <v>0.9398186712734855</v>
+        <v>1.076617274355414</v>
       </c>
       <c r="H25">
-        <v>0.6026463895765772</v>
+        <v>0.02158826468342401</v>
       </c>
       <c r="I25">
-        <v>0.6589639198088548</v>
+        <v>0.001477616286336136</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5941568797643129</v>
       </c>
       <c r="K25">
-        <v>1.838233273543779</v>
+        <v>13.86295033852366</v>
       </c>
       <c r="L25">
-        <v>0.2717741358003423</v>
+        <v>0.3489619419527941</v>
       </c>
       <c r="M25">
-        <v>0.2154848836251411</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3.478412847628192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.382579823018773</v>
+        <v>3.378576278082846</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2052075306718848</v>
+        <v>0.2010015744855167</v>
       </c>
       <c r="E2">
-        <v>0.2306373754266744</v>
+        <v>0.227481062598148</v>
       </c>
       <c r="F2">
-        <v>1.252447769948361</v>
+        <v>1.257411458448033</v>
       </c>
       <c r="G2">
-        <v>0.9129009378936814</v>
+        <v>0.9020504502901048</v>
       </c>
       <c r="H2">
-        <v>0.01499621191391554</v>
+        <v>0.01375477738089254</v>
       </c>
       <c r="I2">
-        <v>0.00226091685459906</v>
+        <v>0.003056644454891178</v>
       </c>
       <c r="J2">
-        <v>0.521256417563535</v>
+        <v>0.5794583124777546</v>
       </c>
       <c r="K2">
-        <v>11.52412880593573</v>
+        <v>3.741100261607329</v>
       </c>
       <c r="L2">
-        <v>0.304631752156709</v>
+        <v>1.269282526763476</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.5344655966977</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3015114198525595</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.978315305392243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2.991946704411191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.948045210902649</v>
+        <v>2.947339705354239</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1900583338122317</v>
+        <v>0.1861154570424475</v>
       </c>
       <c r="E3">
-        <v>0.2098549823110751</v>
+        <v>0.2069544958606748</v>
       </c>
       <c r="F3">
-        <v>1.119040430366937</v>
+        <v>1.124511244146873</v>
       </c>
       <c r="G3">
-        <v>0.8033627102253291</v>
+        <v>0.7914344396182429</v>
       </c>
       <c r="H3">
-        <v>0.01105347003410939</v>
+        <v>0.01005898783788518</v>
       </c>
       <c r="I3">
-        <v>0.003740881385943418</v>
+        <v>0.00402534473257754</v>
       </c>
       <c r="J3">
-        <v>0.472703367291615</v>
+        <v>0.5300197071800596</v>
       </c>
       <c r="K3">
-        <v>10.07224184298005</v>
+        <v>3.255618611089389</v>
       </c>
       <c r="L3">
-        <v>0.2746084294586097</v>
+        <v>1.074118159501452</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.367805833580874</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2717872892234467</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.644154030929883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.659645103484934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681048148417744</v>
+        <v>2.681821740710575</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1807805270237779</v>
+        <v>0.1770029199789178</v>
       </c>
       <c r="E4">
-        <v>0.197087009869005</v>
+        <v>0.1943432783948928</v>
       </c>
       <c r="F4">
-        <v>1.037848524217239</v>
+        <v>1.043574939529762</v>
       </c>
       <c r="G4">
-        <v>0.7366820243289425</v>
+        <v>0.7241908448119574</v>
       </c>
       <c r="H4">
-        <v>0.008858818694302509</v>
+        <v>0.008008723978766702</v>
       </c>
       <c r="I4">
-        <v>0.004900121160077653</v>
+        <v>0.004739054703040146</v>
       </c>
       <c r="J4">
-        <v>0.4432567471646252</v>
+        <v>0.4998191518193522</v>
       </c>
       <c r="K4">
-        <v>9.189783335065925</v>
+        <v>2.961614114354163</v>
       </c>
       <c r="L4">
-        <v>0.2561567540553042</v>
+        <v>0.957279834655921</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.266105139427978</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2535161783561719</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.440952684584374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.457408153728863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.572190666577455</v>
+        <v>2.573431318137125</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1770041084574956</v>
+        <v>0.1732948513497661</v>
       </c>
       <c r="E5">
-        <v>0.1918796579923274</v>
+        <v>0.1891998530526102</v>
       </c>
       <c r="F5">
-        <v>1.004924908037793</v>
+        <v>1.010742816848563</v>
       </c>
       <c r="G5">
-        <v>0.709637451656576</v>
+        <v>0.6969396634505074</v>
       </c>
       <c r="H5">
-        <v>0.008016740777994441</v>
+        <v>0.007223909238590009</v>
       </c>
       <c r="I5">
-        <v>0.005492125352045463</v>
+        <v>0.005143464472130432</v>
       </c>
       <c r="J5">
-        <v>0.4313412920228217</v>
+        <v>0.4875470457030957</v>
       </c>
       <c r="K5">
-        <v>8.853051793186836</v>
+        <v>2.849965454661415</v>
       </c>
       <c r="L5">
-        <v>0.2486295205539122</v>
+        <v>0.912774787172367</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.227799715848917</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2460619420128651</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.358592242713428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.375400463093627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554139934485761</v>
+        <v>2.555426853161975</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1763772542019737</v>
+        <v>0.1726794087187997</v>
       </c>
       <c r="E6">
-        <v>0.1910146530677572</v>
+        <v>0.1883454695756761</v>
       </c>
       <c r="F6">
-        <v>0.9994672734614767</v>
+        <v>1.005299647920779</v>
       </c>
       <c r="G6">
-        <v>0.7051540054327745</v>
+        <v>0.6924232267203081</v>
       </c>
       <c r="H6">
-        <v>0.007879939267196906</v>
+        <v>0.007096527940336161</v>
       </c>
       <c r="I6">
-        <v>0.005678592604683175</v>
+        <v>0.005326341803977286</v>
       </c>
       <c r="J6">
-        <v>0.4293676173463297</v>
+        <v>0.4855112621696236</v>
       </c>
       <c r="K6">
-        <v>8.822774377572443</v>
+        <v>2.840268242994867</v>
       </c>
       <c r="L6">
-        <v>0.2473790396259048</v>
+        <v>0.908325479534895</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.225121752171844</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2448235526847569</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.34494183969602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.361806326352479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679674505376852</v>
+        <v>2.680378805135888</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1807295813632734</v>
+        <v>0.1771513907937674</v>
       </c>
       <c r="E7">
-        <v>0.1970168022189682</v>
+        <v>0.194318675931072</v>
       </c>
       <c r="F7">
-        <v>1.037403869622253</v>
+        <v>1.041291510680651</v>
       </c>
       <c r="G7">
-        <v>0.7363167933367265</v>
+        <v>0.7285946429518049</v>
       </c>
       <c r="H7">
-        <v>0.008847256505673362</v>
+        <v>0.007988334486309367</v>
       </c>
       <c r="I7">
-        <v>0.00512629853047919</v>
+        <v>0.005038490317299527</v>
       </c>
       <c r="J7">
-        <v>0.4430957195913976</v>
+        <v>0.4917600512354028</v>
       </c>
       <c r="K7">
-        <v>9.255134397703159</v>
+        <v>2.984205148036381</v>
       </c>
       <c r="L7">
-        <v>0.2560552764102368</v>
+        <v>0.9646831569641563</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.2756133355836</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2533338533389227</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.439840203334938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.450467123203993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.232954425217486</v>
+        <v>3.230071579090122</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1999781209539577</v>
+        <v>0.196531725235559</v>
       </c>
       <c r="E8">
-        <v>0.2234716696852566</v>
+        <v>0.2205578949385263</v>
       </c>
       <c r="F8">
-        <v>1.20628786693166</v>
+        <v>1.205276522675362</v>
       </c>
       <c r="G8">
-        <v>0.8750023002421727</v>
+        <v>0.8798039240806332</v>
       </c>
       <c r="H8">
-        <v>0.01358696280997107</v>
+        <v>0.01239519410420281</v>
       </c>
       <c r="I8">
-        <v>0.002983637295443486</v>
+        <v>0.003722201396761271</v>
       </c>
       <c r="J8">
-        <v>0.5044348639738132</v>
+        <v>0.5361883833375032</v>
       </c>
       <c r="K8">
-        <v>11.11520447974803</v>
+        <v>3.605289617470902</v>
       </c>
       <c r="L8">
-        <v>0.2942810056964902</v>
+        <v>1.212390714097253</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.490119735010083</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2909944046295649</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.862655032332754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.857429462492888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.317762104428937</v>
+        <v>4.30264391201348</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2379932959234026</v>
+        <v>0.2341088538307332</v>
       </c>
       <c r="E9">
-        <v>0.2754067253970405</v>
+        <v>0.2718974205507223</v>
       </c>
       <c r="F9">
-        <v>1.544085189981004</v>
+        <v>1.539631101893349</v>
       </c>
       <c r="G9">
-        <v>1.152339151301192</v>
+        <v>1.165156998079226</v>
       </c>
       <c r="H9">
-        <v>0.0248946329929598</v>
+        <v>0.02301309980866173</v>
       </c>
       <c r="I9">
-        <v>0.0007709237986919248</v>
+        <v>0.001750839933134074</v>
       </c>
       <c r="J9">
-        <v>0.6279840887189039</v>
+        <v>0.6530032654483193</v>
       </c>
       <c r="K9">
-        <v>14.71684120082335</v>
+        <v>4.812748387863365</v>
       </c>
       <c r="L9">
-        <v>0.3692826928723747</v>
+        <v>1.707007242616925</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.898641978828721</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3651478565149802</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.709933704586945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.693149955882689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.117536575218764</v>
+        <v>5.088379665885213</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2604487199423602</v>
+        <v>0.2574718806773291</v>
       </c>
       <c r="E10">
-        <v>0.3034744708663197</v>
+        <v>0.2998314121328178</v>
       </c>
       <c r="F10">
-        <v>1.774723683564872</v>
+        <v>1.756424074932028</v>
       </c>
       <c r="G10">
-        <v>1.34610518766209</v>
+        <v>1.394465671117217</v>
       </c>
       <c r="H10">
-        <v>0.03429952728080954</v>
+        <v>0.03179062286697931</v>
       </c>
       <c r="I10">
-        <v>0.001201653848322159</v>
+        <v>0.001279931822063318</v>
       </c>
       <c r="J10">
-        <v>0.7142264330510102</v>
+        <v>0.6875282369844342</v>
       </c>
       <c r="K10">
-        <v>17.46403937377977</v>
+        <v>5.735045842027631</v>
       </c>
       <c r="L10">
-        <v>0.4080941897067021</v>
+        <v>2.089944884526147</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.208521902997404</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4029023838154444</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4.30170747373802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4.240415797098819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.483227921780497</v>
+        <v>5.445722319817662</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2233546388514753</v>
+        <v>0.2225014863077064</v>
       </c>
       <c r="E11">
-        <v>0.2347232115179168</v>
+        <v>0.2315905502004583</v>
       </c>
       <c r="F11">
-        <v>1.683694899761207</v>
+        <v>1.642708711871521</v>
       </c>
       <c r="G11">
-        <v>1.310135947180697</v>
+        <v>1.422292423030001</v>
       </c>
       <c r="H11">
-        <v>0.05252127267759832</v>
+        <v>0.04981025606645773</v>
       </c>
       <c r="I11">
-        <v>0.002367729425060361</v>
+        <v>0.001775712278719865</v>
       </c>
       <c r="J11">
-        <v>0.6927793480313937</v>
+        <v>0.5745929831238925</v>
       </c>
       <c r="K11">
-        <v>18.85368032969564</v>
+        <v>6.202209118983291</v>
       </c>
       <c r="L11">
-        <v>0.2971522639342083</v>
+        <v>2.28265502974719</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.367332736035479</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2915053608738702</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4.180733887948179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.045082617337755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.621657906775113</v>
+        <v>5.580955086518486</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1907406311955242</v>
+        <v>0.1904490329947777</v>
       </c>
       <c r="E12">
-        <v>0.1813046817217945</v>
+        <v>0.1783117803611596</v>
       </c>
       <c r="F12">
-        <v>1.559892255972883</v>
+        <v>1.510490552837737</v>
       </c>
       <c r="G12">
-        <v>1.238969911002613</v>
+        <v>1.377716244400631</v>
       </c>
       <c r="H12">
-        <v>0.08977146764149779</v>
+        <v>0.08705298280926144</v>
       </c>
       <c r="I12">
-        <v>0.002685594657812373</v>
+        <v>0.001745455916470462</v>
       </c>
       <c r="J12">
-        <v>0.6562754731420171</v>
+        <v>0.5036268261483201</v>
       </c>
       <c r="K12">
-        <v>19.31862268951397</v>
+        <v>6.357694151093114</v>
       </c>
       <c r="L12">
-        <v>0.215982870764023</v>
+        <v>2.348233783844535</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.418916410462714</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2105618500620281</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.953512456708609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3.788567013214561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.591767537636429</v>
+        <v>5.551814712942814</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1598373736444429</v>
+        <v>0.1588258592752609</v>
       </c>
       <c r="E13">
-        <v>0.1368006231947021</v>
+        <v>0.1337214432084792</v>
       </c>
       <c r="F13">
-        <v>1.404496457274092</v>
+        <v>1.360521926558263</v>
       </c>
       <c r="G13">
-        <v>1.137033250489537</v>
+        <v>1.263664447075115</v>
       </c>
       <c r="H13">
-        <v>0.1431267270613006</v>
+        <v>0.1405750205224905</v>
       </c>
       <c r="I13">
-        <v>0.002565693311898265</v>
+        <v>0.001695596200264937</v>
       </c>
       <c r="J13">
-        <v>0.6062410878558353</v>
+        <v>0.4707856916709403</v>
       </c>
       <c r="K13">
-        <v>19.20531942921514</v>
+        <v>6.319664415238663</v>
       </c>
       <c r="L13">
-        <v>0.1532872685762534</v>
+        <v>2.332479451636175</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.406027843523361</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1485768407371708</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.632649870811008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3.483189373352957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.494584521202512</v>
+        <v>5.4568416266344</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1396268570232451</v>
+        <v>0.1377541958684247</v>
       </c>
       <c r="E14">
-        <v>0.1113289329064706</v>
+        <v>0.1081726829842413</v>
       </c>
       <c r="F14">
-        <v>1.282900493778712</v>
+        <v>1.248015346316905</v>
       </c>
       <c r="G14">
-        <v>1.052624768933541</v>
+        <v>1.155408258534692</v>
       </c>
       <c r="H14">
-        <v>0.1904651362987124</v>
+        <v>0.1880966053892479</v>
       </c>
       <c r="I14">
-        <v>0.002371784973330904</v>
+        <v>0.001748908435273755</v>
       </c>
       <c r="J14">
-        <v>0.5654779508186039</v>
+        <v>0.4623266328875673</v>
       </c>
       <c r="K14">
-        <v>18.88634122454636</v>
+        <v>6.21307164981539</v>
       </c>
       <c r="L14">
-        <v>0.1208260792125131</v>
+        <v>2.2873583332794</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.370820410979348</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1167227222626686</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3.368321711477222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3.247373769167581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.435211649721907</v>
+        <v>5.398696030793474</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1346712100384622</v>
+        <v>0.1324548960807874</v>
       </c>
       <c r="E15">
-        <v>0.1057166762035635</v>
+        <v>0.1025463803130524</v>
       </c>
       <c r="F15">
-        <v>1.24660717501439</v>
+        <v>1.216147242568653</v>
       </c>
       <c r="G15">
-        <v>1.025678165276076</v>
+        <v>1.116272868027863</v>
       </c>
       <c r="H15">
-        <v>0.2021622490207875</v>
+        <v>0.199875330214752</v>
       </c>
       <c r="I15">
-        <v>0.002360979222592263</v>
+        <v>0.001898833611874373</v>
       </c>
       <c r="J15">
-        <v>0.5527758070708444</v>
+        <v>0.4662090416320126</v>
       </c>
       <c r="K15">
-        <v>18.7169579669777</v>
+        <v>6.156750465584224</v>
       </c>
       <c r="L15">
-        <v>0.1142462834044053</v>
+        <v>2.262940954596331</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.352769955851301</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1103419385377826</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3.2845728859715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3.177997150697507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.094602465416529</v>
+        <v>5.065248474394025</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1321440565777721</v>
+        <v>0.1287146936178871</v>
       </c>
       <c r="E16">
-        <v>0.1040983921501493</v>
+        <v>0.100936072675136</v>
       </c>
       <c r="F16">
-        <v>1.182776691968286</v>
+        <v>1.17107318720609</v>
       </c>
       <c r="G16">
-        <v>0.9653508623217846</v>
+        <v>1.002938313515131</v>
       </c>
       <c r="H16">
-        <v>0.1858369109526734</v>
+        <v>0.1839019752130469</v>
       </c>
       <c r="I16">
-        <v>0.001876167382247829</v>
+        <v>0.002132965869017234</v>
       </c>
       <c r="J16">
-        <v>0.5268231504145149</v>
+        <v>0.5155727318516483</v>
       </c>
       <c r="K16">
-        <v>17.58794607820835</v>
+        <v>5.778888397600895</v>
       </c>
       <c r="L16">
-        <v>0.1124209813663342</v>
+        <v>2.103758719287669</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.227478206699885</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1090562357861131</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3.102158268487727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3.058146105053481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.885989206659872</v>
+        <v>4.860634695955127</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1404919417646866</v>
+        <v>0.1365749285992592</v>
       </c>
       <c r="E17">
-        <v>0.1152147706854532</v>
+        <v>0.1120305736626612</v>
       </c>
       <c r="F17">
-        <v>1.197624073842519</v>
+        <v>1.193667047333804</v>
       </c>
       <c r="G17">
-        <v>0.9635398738693368</v>
+        <v>0.9791487661885157</v>
       </c>
       <c r="H17">
-        <v>0.1463619073775249</v>
+        <v>0.1445804565368576</v>
       </c>
       <c r="I17">
-        <v>0.001730364264286521</v>
+        <v>0.002343139873185685</v>
       </c>
       <c r="J17">
-        <v>0.5284379638378169</v>
+        <v>0.5504386556868042</v>
       </c>
       <c r="K17">
-        <v>16.89909165923979</v>
+        <v>5.548135641191635</v>
       </c>
       <c r="L17">
-        <v>0.1260765946189331</v>
+        <v>2.006833797062058</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.150849485818298</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1228531784568787</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.101578329706655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>3.083745870791688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.765853761231426</v>
+        <v>4.742859392049581</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1609552013426949</v>
+        <v>0.1567706615510218</v>
       </c>
       <c r="E18">
-        <v>0.1438513208186656</v>
+        <v>0.1405543854906028</v>
       </c>
       <c r="F18">
-        <v>1.283304852563717</v>
+        <v>1.282390728603332</v>
       </c>
       <c r="G18">
-        <v>1.012260546548077</v>
+        <v>1.018649198413144</v>
       </c>
       <c r="H18">
-        <v>0.09358482393153622</v>
+        <v>0.09182575759506051</v>
       </c>
       <c r="I18">
-        <v>0.001442733863322054</v>
+        <v>0.002176283410867619</v>
       </c>
       <c r="J18">
-        <v>0.5540293964768352</v>
+        <v>0.5905044774802946</v>
       </c>
       <c r="K18">
-        <v>16.43940800149016</v>
+        <v>5.393326535686327</v>
       </c>
       <c r="L18">
-        <v>0.1648673076811207</v>
+        <v>1.943426750239254</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.097949184136553</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1615422715508004</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3.258371541168515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3.25110970742287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.725392223402594</v>
+        <v>4.703025162701522</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1925627610090572</v>
+        <v>0.1882124431631667</v>
       </c>
       <c r="E19">
-        <v>0.1926611192076244</v>
+        <v>0.1891711346040665</v>
       </c>
       <c r="F19">
-        <v>1.423299503595089</v>
+        <v>1.422822738313229</v>
       </c>
       <c r="G19">
-        <v>1.099715338489375</v>
+        <v>1.103709801813721</v>
       </c>
       <c r="H19">
-        <v>0.05032862311823294</v>
+        <v>0.04847494845120082</v>
       </c>
       <c r="I19">
-        <v>0.001548324453265693</v>
+        <v>0.002359535199539131</v>
       </c>
       <c r="J19">
-        <v>0.5976663563214686</v>
+        <v>0.6382848692021241</v>
       </c>
       <c r="K19">
-        <v>16.33392900694503</v>
+        <v>5.358299166975684</v>
       </c>
       <c r="L19">
-        <v>0.2367287013732167</v>
+        <v>1.928117299238664</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.086916665365138</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2331056954129664</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3.535110870480139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3.52984030912171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.90816401171503</v>
+        <v>4.882413673458075</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2542942999338464</v>
+        <v>0.2503341155629926</v>
       </c>
       <c r="E20">
-        <v>0.2956616248278365</v>
+        <v>0.2918796639931642</v>
       </c>
       <c r="F20">
-        <v>1.7128387200097</v>
+        <v>1.705003991399167</v>
       </c>
       <c r="G20">
-        <v>1.294305016720642</v>
+        <v>1.315344583349059</v>
       </c>
       <c r="H20">
-        <v>0.03167548206316084</v>
+        <v>0.02939204782175109</v>
       </c>
       <c r="I20">
-        <v>0.001719905060919125</v>
+        <v>0.002293599022196169</v>
       </c>
       <c r="J20">
-        <v>0.6911074028796236</v>
+        <v>0.7060420551500783</v>
       </c>
       <c r="K20">
-        <v>16.96718881909834</v>
+        <v>5.570893123944387</v>
       </c>
       <c r="L20">
-        <v>0.3971914512462575</v>
+        <v>2.016499337399793</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.158299005326782</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3925691399906981</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4.143378695458239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4.11544003006054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.523485428346078</v>
+        <v>5.484826355133634</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2805466636791607</v>
+        <v>0.281388922305851</v>
       </c>
       <c r="E21">
-        <v>0.3332327993997311</v>
+        <v>0.3302979475396342</v>
       </c>
       <c r="F21">
-        <v>1.927308039966817</v>
+        <v>1.87209349459782</v>
       </c>
       <c r="G21">
-        <v>1.467111451542138</v>
+        <v>1.613977281382802</v>
       </c>
       <c r="H21">
-        <v>0.04019239336840297</v>
+        <v>0.03705776246711068</v>
       </c>
       <c r="I21">
-        <v>0.002702293241272358</v>
+        <v>0.002053564270301678</v>
       </c>
       <c r="J21">
-        <v>0.7691653483843481</v>
+        <v>0.602656426162568</v>
       </c>
       <c r="K21">
-        <v>19.0530814542908</v>
+        <v>6.269646845388735</v>
       </c>
       <c r="L21">
-        <v>0.4527744831352578</v>
+        <v>2.309618161752979</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.391090112649749</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4456761100014859</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4.673468597066062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.49532446381204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.926508323456346</v>
+        <v>5.878322507906091</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2948678124114394</v>
+        <v>0.2993695625049213</v>
       </c>
       <c r="E22">
-        <v>0.3526454370083343</v>
+        <v>0.3504259840545032</v>
       </c>
       <c r="F22">
-        <v>2.057272335647909</v>
+        <v>1.967483564777169</v>
       </c>
       <c r="G22">
-        <v>1.573927726432458</v>
+        <v>1.815899873047499</v>
       </c>
       <c r="H22">
-        <v>0.0459071897082306</v>
+        <v>0.04217803079741822</v>
       </c>
       <c r="I22">
-        <v>0.003528557158854362</v>
+        <v>0.001713660669059536</v>
       </c>
       <c r="J22">
-        <v>0.8172406397784755</v>
+        <v>0.5299320657549487</v>
       </c>
       <c r="K22">
-        <v>20.33691491389084</v>
+        <v>6.697768887311469</v>
       </c>
       <c r="L22">
-        <v>0.4808054516935414</v>
+        <v>2.492138791216689</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.531456330504739</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4719923155687695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5.000767447104749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.713285147249678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.710813434058196</v>
+        <v>5.668198652478338</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2872151636255609</v>
+        <v>0.2891566807031438</v>
       </c>
       <c r="E23">
-        <v>0.3422745681313089</v>
+        <v>0.33952044513223</v>
       </c>
       <c r="F23">
-        <v>1.987767446515775</v>
+        <v>1.921589306564684</v>
       </c>
       <c r="G23">
-        <v>1.516797494339954</v>
+        <v>1.693352292505409</v>
       </c>
       <c r="H23">
-        <v>0.04281937570611882</v>
+        <v>0.03944939299832972</v>
       </c>
       <c r="I23">
-        <v>0.002715883999512059</v>
+        <v>0.001505583518538245</v>
       </c>
       <c r="J23">
-        <v>0.791518765714784</v>
+        <v>0.5858775275363968</v>
       </c>
       <c r="K23">
-        <v>19.56216501873087</v>
+        <v>6.438451105679007</v>
       </c>
       <c r="L23">
-        <v>0.4658301126588071</v>
+        <v>2.383611013305796</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.444496692596033</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4581436861087269</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4.825695243888902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.612810863026198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.897578964285287</v>
+        <v>4.872433106037477</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2584189790795079</v>
+        <v>0.2544168195219356</v>
       </c>
       <c r="E24">
-        <v>0.3031943550646332</v>
+        <v>0.2993841709402218</v>
       </c>
       <c r="F24">
-        <v>1.727445812555743</v>
+        <v>1.719915724793637</v>
       </c>
       <c r="G24">
-        <v>1.302917318934732</v>
+        <v>1.32299917329982</v>
       </c>
       <c r="H24">
-        <v>0.03191297594009068</v>
+        <v>0.02961669748321061</v>
       </c>
       <c r="I24">
-        <v>0.00121840794353556</v>
+        <v>0.001704931355386741</v>
       </c>
       <c r="J24">
-        <v>0.6954194084186724</v>
+        <v>0.7118870930243304</v>
       </c>
       <c r="K24">
-        <v>16.79929515435532</v>
+        <v>5.513065322093951</v>
       </c>
       <c r="L24">
-        <v>0.4094034945277372</v>
+        <v>1.995324172740297</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.136118663916747</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4047512417326118</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.170660286305065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>4.14377850464507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.024421293534886</v>
+        <v>4.013054121371681</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2276685309031734</v>
+        <v>0.2236076866477248</v>
       </c>
       <c r="E25">
-        <v>0.2613334507810094</v>
+        <v>0.2579184592760768</v>
       </c>
       <c r="F25">
-        <v>1.451860035174946</v>
+        <v>1.451074693461379</v>
       </c>
       <c r="G25">
-        <v>1.076617274355414</v>
+        <v>1.080176027311893</v>
       </c>
       <c r="H25">
-        <v>0.02158826468342401</v>
+        <v>0.0199215200316929</v>
       </c>
       <c r="I25">
-        <v>0.001477616286336136</v>
+        <v>0.002670473434455367</v>
       </c>
       <c r="J25">
-        <v>0.5941568797643129</v>
+        <v>0.6324704822700937</v>
       </c>
       <c r="K25">
-        <v>13.86295033852366</v>
+        <v>4.527650811568293</v>
       </c>
       <c r="L25">
-        <v>0.3489619419527941</v>
+        <v>1.586372249236916</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.805564981904524</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3451776905392734</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3.478412847628192</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.473435604318581</v>
       </c>
     </row>
   </sheetData>
